--- a/data/NewlyCreatedData/Checks/BirthDates.xlsx
+++ b/data/NewlyCreatedData/Checks/BirthDates.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\monas\Git\repo\glt\GoldenLionTamarins\data\NewlyCreatedData\Checks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F0C7E2-01FA-435A-98B5-988795709810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4903C-FC87-4E02-B344-B8275A2E086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="353">
   <si>
     <t>Tatoo</t>
   </si>
@@ -1082,6 +1071,9 @@
     <t>RT2</t>
   </si>
   <si>
+    <t>Birth date</t>
+  </si>
+  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -1092,414 +1084,6 @@
   </si>
   <si>
     <t>01/90 or 01/92</t>
-  </si>
-  <si>
-    <t>Birth_date</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>01/03/93</t>
-  </si>
-  <si>
-    <t>01/02/92</t>
-  </si>
-  <si>
-    <t>06/11/95</t>
-  </si>
-  <si>
-    <t>01/10/00</t>
-  </si>
-  <si>
-    <t>01/11/00</t>
-  </si>
-  <si>
-    <t>01/01/01</t>
-  </si>
-  <si>
-    <t>15/09/97</t>
-  </si>
-  <si>
-    <t>24/09/98</t>
-  </si>
-  <si>
-    <t>15/09/99</t>
-  </si>
-  <si>
-    <t>01/01/00</t>
-  </si>
-  <si>
-    <t>01/07/88</t>
-  </si>
-  <si>
-    <t>01/06/91</t>
-  </si>
-  <si>
-    <t>16/09/96</t>
-  </si>
-  <si>
-    <t>01/11/99</t>
-  </si>
-  <si>
-    <t>02/05/90</t>
-  </si>
-  <si>
-    <t>31/12/90</t>
-  </si>
-  <si>
-    <t>01/03/94</t>
-  </si>
-  <si>
-    <t>01/02/95</t>
-  </si>
-  <si>
-    <t>01/10/95</t>
-  </si>
-  <si>
-    <t>01/10/96</t>
-  </si>
-  <si>
-    <t>01/07/98</t>
-  </si>
-  <si>
-    <t>01/05/99</t>
-  </si>
-  <si>
-    <t>01/07/01</t>
-  </si>
-  <si>
-    <t>27/12/91</t>
-  </si>
-  <si>
-    <t>01/04/93</t>
-  </si>
-  <si>
-    <t>20/03/89</t>
-  </si>
-  <si>
-    <t>01/02/90</t>
-  </si>
-  <si>
-    <t>16/12/91</t>
-  </si>
-  <si>
-    <t>01/12/91</t>
-  </si>
-  <si>
-    <t>01/09/94</t>
-  </si>
-  <si>
-    <t>13/11/92</t>
-  </si>
-  <si>
-    <t>01/05/93</t>
-  </si>
-  <si>
-    <t>01/11/94</t>
-  </si>
-  <si>
-    <t>01/04/95</t>
-  </si>
-  <si>
-    <t>06/04/91</t>
-  </si>
-  <si>
-    <t>01/09/91</t>
-  </si>
-  <si>
-    <t>01/12/96</t>
-  </si>
-  <si>
-    <t>01/10/98</t>
-  </si>
-  <si>
-    <t>01/10/99</t>
-  </si>
-  <si>
-    <t>01/06/92</t>
-  </si>
-  <si>
-    <t>01/08/86</t>
-  </si>
-  <si>
-    <t>01/06/98</t>
-  </si>
-  <si>
-    <t>01/07/00</t>
-  </si>
-  <si>
-    <t>01/10/94</t>
-  </si>
-  <si>
-    <t>01/11/95</t>
-  </si>
-  <si>
-    <t>01/09/96</t>
-  </si>
-  <si>
-    <t>01/09/97</t>
-  </si>
-  <si>
-    <t>01/12/98</t>
-  </si>
-  <si>
-    <t>01/10/01</t>
-  </si>
-  <si>
-    <t>01/02/91</t>
-  </si>
-  <si>
-    <t>01/04/91</t>
-  </si>
-  <si>
-    <t>22/04/99</t>
-  </si>
-  <si>
-    <t>01/08/89</t>
-  </si>
-  <si>
-    <t>01/12/99</t>
-  </si>
-  <si>
-    <t>14/02/87</t>
-  </si>
-  <si>
-    <t>09/10/91</t>
-  </si>
-  <si>
-    <t>20/02/93</t>
-  </si>
-  <si>
-    <t>01/12/88</t>
-  </si>
-  <si>
-    <t>12/10/90</t>
-  </si>
-  <si>
-    <t>19/01/91</t>
-  </si>
-  <si>
-    <t>01/06/97</t>
-  </si>
-  <si>
-    <t>01/11/98</t>
-  </si>
-  <si>
-    <t>25/01/92</t>
-  </si>
-  <si>
-    <t>01/02/93</t>
-  </si>
-  <si>
-    <t>01/07/95</t>
-  </si>
-  <si>
-    <t>01/08/96</t>
-  </si>
-  <si>
-    <t>01/08/97</t>
-  </si>
-  <si>
-    <t>10/10/96</t>
-  </si>
-  <si>
-    <t>08/10/97</t>
-  </si>
-  <si>
-    <t>27/09/98</t>
-  </si>
-  <si>
-    <t>10/09/99</t>
-  </si>
-  <si>
-    <t>05/01/94</t>
-  </si>
-  <si>
-    <t>13/10/94</t>
-  </si>
-  <si>
-    <t>01/09/99</t>
-  </si>
-  <si>
-    <t>01/02/00</t>
-  </si>
-  <si>
-    <t>30/09/95</t>
-  </si>
-  <si>
-    <t>31/10/97</t>
-  </si>
-  <si>
-    <t>01/10/97</t>
-  </si>
-  <si>
-    <t>01/09/98</t>
-  </si>
-  <si>
-    <t>01/11/92</t>
-  </si>
-  <si>
-    <t>24/09/90</t>
-  </si>
-  <si>
-    <t>18/01/99</t>
-  </si>
-  <si>
-    <t>01/02/01</t>
-  </si>
-  <si>
-    <t>01/04/92</t>
-  </si>
-  <si>
-    <t>01/06/96</t>
-  </si>
-  <si>
-    <t>30/03/97</t>
-  </si>
-  <si>
-    <t>07/09/98</t>
-  </si>
-  <si>
-    <t>01/03/86</t>
-  </si>
-  <si>
-    <t>07/12/87</t>
-  </si>
-  <si>
-    <t>01/05/01</t>
-  </si>
-  <si>
-    <t>13/12/97</t>
-  </si>
-  <si>
-    <t>01/02/88</t>
-  </si>
-  <si>
-    <t>02/12/95</t>
-  </si>
-  <si>
-    <t>01/02/97</t>
-  </si>
-  <si>
-    <t>01/09/89</t>
-  </si>
-  <si>
-    <t>22/10/92</t>
-  </si>
-  <si>
-    <t>11/01/86</t>
-  </si>
-  <si>
-    <t>01/03/00</t>
-  </si>
-  <si>
-    <t>01/02/99</t>
-  </si>
-  <si>
-    <t>10/10/99</t>
-  </si>
-  <si>
-    <t>01/10/85</t>
-  </si>
-  <si>
-    <t>01/07/96</t>
-  </si>
-  <si>
-    <t>01/01/93</t>
-  </si>
-  <si>
-    <t>01/08/94</t>
-  </si>
-  <si>
-    <t>01/08/95</t>
-  </si>
-  <si>
-    <t>01/10/92</t>
-  </si>
-  <si>
-    <t>01/11/93</t>
-  </si>
-  <si>
-    <t>01/03/95</t>
-  </si>
-  <si>
-    <t>20/10/95</t>
-  </si>
-  <si>
-    <t>04/10/96</t>
-  </si>
-  <si>
-    <t>10/03/97</t>
-  </si>
-  <si>
-    <t>10/10/97</t>
-  </si>
-  <si>
-    <t>18/02/98</t>
-  </si>
-  <si>
-    <t>21/10/98</t>
-  </si>
-  <si>
-    <t>18/10/99</t>
-  </si>
-  <si>
-    <t>01/07/91</t>
-  </si>
-  <si>
-    <t>01/12/00</t>
-  </si>
-  <si>
-    <t>01/09/01</t>
-  </si>
-  <si>
-    <t>17/03/93</t>
-  </si>
-  <si>
-    <t>01/03/91</t>
-  </si>
-  <si>
-    <t>01/10/93</t>
-  </si>
-  <si>
-    <t>28/01/98</t>
-  </si>
-  <si>
-    <t>28/09/98</t>
-  </si>
-  <si>
-    <t>01/11/01</t>
-  </si>
-  <si>
-    <t>06/10/95</t>
-  </si>
-  <si>
-    <t>17/09/97</t>
-  </si>
-  <si>
-    <t>01/10/90</t>
-  </si>
-  <si>
-    <t>01/11/91</t>
-  </si>
-  <si>
-    <t>01/03/88</t>
-  </si>
-  <si>
-    <t>01/03/89</t>
-  </si>
-  <si>
-    <t>05/10/89</t>
-  </si>
-  <si>
-    <t>01/07/97</t>
-  </si>
-  <si>
-    <t>Birth_VR</t>
   </si>
 </sst>
 </file>
@@ -1513,9 +1097,9 @@
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="168" formatCode="m/d/yy"/>
     <numFmt numFmtId="169" formatCode="d/m/yy"/>
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1535,12 +1119,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1584,7 +1162,7 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1867,37 +1445,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1910,11 +1485,8 @@
       <c r="D2" s="4">
         <v>34029</v>
       </c>
-      <c r="E2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1927,11 +1499,8 @@
       <c r="D3" s="4">
         <v>33635</v>
       </c>
-      <c r="E3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>123</v>
       </c>
@@ -1944,79 +1513,46 @@
       <c r="D4" s="4">
         <v>35009</v>
       </c>
-      <c r="E4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="11">
         <v>36800</v>
       </c>
-      <c r="E5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="11">
         <v>36831</v>
       </c>
-      <c r="E6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D7" s="12">
         <v>36892</v>
       </c>
-      <c r="E7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D8" s="12">
         <v>36892</v>
       </c>
-      <c r="E8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
@@ -2029,11 +1565,8 @@
       <c r="D9" s="4">
         <v>35688</v>
       </c>
-      <c r="E9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>125</v>
       </c>
@@ -2046,11 +1579,8 @@
       <c r="D10" s="6">
         <v>36062</v>
       </c>
-      <c r="E10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
@@ -2063,11 +1593,8 @@
       <c r="D11" s="6">
         <v>36062</v>
       </c>
-      <c r="E11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -2080,11 +1607,8 @@
       <c r="D12" s="7">
         <v>36418</v>
       </c>
-      <c r="E12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>128</v>
       </c>
@@ -2097,11 +1621,8 @@
       <c r="D13" s="7">
         <v>36418</v>
       </c>
-      <c r="E13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -2114,11 +1635,8 @@
       <c r="D14" s="5">
         <v>36526</v>
       </c>
-      <c r="E14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>130</v>
       </c>
@@ -2131,11 +1649,8 @@
       <c r="D15" s="5">
         <v>36526</v>
       </c>
-      <c r="E15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>161</v>
       </c>
@@ -2148,11 +1663,8 @@
       <c r="D16" s="4">
         <v>32325</v>
       </c>
-      <c r="E16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>162</v>
       </c>
@@ -2165,11 +1677,8 @@
       <c r="D17" s="4">
         <v>33390</v>
       </c>
-      <c r="E17" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -2182,11 +1691,8 @@
       <c r="D18" s="4">
         <v>35324</v>
       </c>
-      <c r="E18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -2199,11 +1705,8 @@
       <c r="D19" s="4">
         <v>36465</v>
       </c>
-      <c r="E19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>165</v>
       </c>
@@ -2216,11 +1719,8 @@
       <c r="D20" s="4">
         <v>36465</v>
       </c>
-      <c r="E20" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -2233,11 +1733,8 @@
       <c r="D21" s="8">
         <v>32995</v>
       </c>
-      <c r="E21" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>315</v>
       </c>
@@ -2250,11 +1747,8 @@
       <c r="D22" s="4">
         <v>33238</v>
       </c>
-      <c r="E22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>203</v>
       </c>
@@ -2267,11 +1761,8 @@
       <c r="D23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E23" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>205</v>
       </c>
@@ -2284,11 +1775,8 @@
       <c r="D24" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E24" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>207</v>
       </c>
@@ -2301,11 +1789,8 @@
       <c r="D25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>208</v>
       </c>
@@ -2318,11 +1803,8 @@
       <c r="D26" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>210</v>
       </c>
@@ -2335,11 +1817,8 @@
       <c r="D27" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>211</v>
       </c>
@@ -2352,11 +1831,8 @@
       <c r="D28" s="5">
         <v>35339</v>
       </c>
-      <c r="E28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>212</v>
       </c>
@@ -2369,11 +1845,8 @@
       <c r="D29" s="5">
         <v>35339</v>
       </c>
-      <c r="E29" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>213</v>
       </c>
@@ -2386,11 +1859,8 @@
       <c r="D30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E30" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>215</v>
       </c>
@@ -2403,11 +1873,8 @@
       <c r="D31" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E31" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>217</v>
       </c>
@@ -2420,11 +1887,8 @@
       <c r="D32" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E32" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>296</v>
       </c>
@@ -2437,11 +1901,8 @@
       <c r="D33" s="4">
         <v>33238</v>
       </c>
-      <c r="E33" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
@@ -2454,11 +1915,8 @@
       <c r="D34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>220</v>
       </c>
@@ -2471,11 +1929,8 @@
       <c r="D35" s="5">
         <v>37073</v>
       </c>
-      <c r="E35" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>198</v>
       </c>
@@ -2488,11 +1943,8 @@
       <c r="D36" s="4">
         <v>33599</v>
       </c>
-      <c r="E36" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>199</v>
       </c>
@@ -2505,11 +1957,8 @@
       <c r="D37" s="4">
         <v>33599</v>
       </c>
-      <c r="E37" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>269</v>
       </c>
@@ -2522,11 +1971,8 @@
       <c r="D38" s="4">
         <v>34060</v>
       </c>
-      <c r="E38" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>253</v>
       </c>
@@ -2539,11 +1985,8 @@
       <c r="D39" s="4">
         <v>34394</v>
       </c>
-      <c r="E39" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -2556,11 +1999,8 @@
       <c r="D40" s="4">
         <v>32587</v>
       </c>
-      <c r="E40" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>135</v>
       </c>
@@ -2573,11 +2013,8 @@
       <c r="D41" s="4">
         <v>32905</v>
       </c>
-      <c r="E41" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>295</v>
       </c>
@@ -2590,11 +2027,8 @@
       <c r="D42" s="4">
         <v>32905</v>
       </c>
-      <c r="E42" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>322</v>
       </c>
@@ -2607,11 +2041,8 @@
       <c r="D43" s="4">
         <v>33588</v>
       </c>
-      <c r="E43" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>323</v>
       </c>
@@ -2624,28 +2055,17 @@
       <c r="D44" s="4">
         <v>33573</v>
       </c>
-      <c r="E44" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>273</v>
       </c>
@@ -2658,11 +2078,8 @@
       <c r="D46" s="4">
         <v>34578</v>
       </c>
-      <c r="E46" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>202</v>
       </c>
@@ -2675,11 +2092,8 @@
       <c r="D47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E47" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>98</v>
       </c>
@@ -2692,11 +2106,8 @@
       <c r="D48" s="4">
         <v>33921</v>
       </c>
-      <c r="E48" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
@@ -2709,11 +2120,8 @@
       <c r="D49" s="9">
         <v>34090</v>
       </c>
-      <c r="E49" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>248</v>
       </c>
@@ -2726,11 +2134,8 @@
       <c r="D50" s="9">
         <v>34639</v>
       </c>
-      <c r="E50" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>221</v>
       </c>
@@ -2743,11 +2148,8 @@
       <c r="D51" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E51" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>335</v>
       </c>
@@ -2757,14 +2159,8 @@
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E52" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>268</v>
       </c>
@@ -2777,11 +2173,8 @@
       <c r="D53" s="4">
         <v>33334</v>
       </c>
-      <c r="E53" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>270</v>
       </c>
@@ -2794,11 +2187,8 @@
       <c r="D54" s="4">
         <v>33482</v>
       </c>
-      <c r="E54" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>200</v>
       </c>
@@ -2811,11 +2201,8 @@
       <c r="D55" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E55" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>137</v>
       </c>
@@ -2828,11 +2215,8 @@
       <c r="D56" s="4">
         <v>35400</v>
       </c>
-      <c r="E56" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -2845,11 +2229,8 @@
       <c r="D57" s="4">
         <v>35400</v>
       </c>
-      <c r="E57" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>138</v>
       </c>
@@ -2862,79 +2243,40 @@
       <c r="D58" s="4">
         <v>35977</v>
       </c>
-      <c r="E58" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D59" s="4">
         <v>36069</v>
       </c>
-      <c r="E59" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D60" s="4">
         <v>36069</v>
       </c>
-      <c r="E60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D61" s="4">
         <v>36434</v>
       </c>
-      <c r="E61" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D62" s="4">
         <v>36434</v>
       </c>
-      <c r="E62" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>339</v>
       </c>
@@ -2947,11 +2289,8 @@
       <c r="D63" s="4">
         <v>33756</v>
       </c>
-      <c r="E63" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>340</v>
       </c>
@@ -2964,11 +2303,8 @@
       <c r="D64" s="4">
         <v>31625</v>
       </c>
-      <c r="E64" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>223</v>
       </c>
@@ -2981,11 +2317,8 @@
       <c r="D65" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E65" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>249</v>
       </c>
@@ -2998,11 +2331,8 @@
       <c r="D66" s="9">
         <v>36708</v>
       </c>
-      <c r="E66" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3015,11 +2345,8 @@
       <c r="D67" s="4">
         <v>34608</v>
       </c>
-      <c r="E67" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
@@ -3032,11 +2359,8 @@
       <c r="D68" s="4">
         <v>34608</v>
       </c>
-      <c r="E68" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -3049,11 +2373,8 @@
       <c r="D69" s="4">
         <v>35004</v>
       </c>
-      <c r="E69" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>14</v>
       </c>
@@ -3066,11 +2387,8 @@
       <c r="D70" s="4">
         <v>35004</v>
       </c>
-      <c r="E70" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
@@ -3083,11 +2401,8 @@
       <c r="D71" s="4">
         <v>35309</v>
       </c>
-      <c r="E71" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>20</v>
       </c>
@@ -3100,11 +2415,8 @@
       <c r="D72" s="4">
         <v>35309</v>
       </c>
-      <c r="E72" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>22</v>
       </c>
@@ -3117,11 +2429,8 @@
       <c r="D73" s="4">
         <v>35674</v>
       </c>
-      <c r="E73" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>24</v>
       </c>
@@ -3134,28 +2443,16 @@
       <c r="D74" s="4">
         <v>35674</v>
       </c>
-      <c r="E74" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D75" s="4">
         <v>36130</v>
       </c>
-      <c r="E75" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
@@ -3168,11 +2465,8 @@
       <c r="D76" s="4">
         <v>36130</v>
       </c>
-      <c r="E76" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>29</v>
       </c>
@@ -3185,11 +2479,8 @@
       <c r="D77" s="4">
         <v>36434</v>
       </c>
-      <c r="E77" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>31</v>
       </c>
@@ -3202,79 +2493,46 @@
       <c r="D78" s="4">
         <v>36434</v>
       </c>
-      <c r="E78" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="4">
         <v>36800</v>
       </c>
-      <c r="E79" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="4">
         <v>36800</v>
       </c>
-      <c r="E80" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D81" s="4">
         <v>37165</v>
       </c>
-      <c r="E81" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D82" s="4">
         <v>37165</v>
       </c>
-      <c r="E82" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
@@ -3287,11 +2545,8 @@
       <c r="D83" s="4">
         <v>33270</v>
       </c>
-      <c r="E83" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>4</v>
       </c>
@@ -3304,11 +2559,8 @@
       <c r="D84" s="4">
         <v>33329</v>
       </c>
-      <c r="E84" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
@@ -3321,11 +2573,8 @@
       <c r="D85" s="4">
         <v>33329</v>
       </c>
-      <c r="E85" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
@@ -3338,11 +2587,8 @@
       <c r="D86" s="7">
         <v>36272</v>
       </c>
-      <c r="E86" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>188</v>
       </c>
@@ -3355,11 +2601,8 @@
       <c r="D87" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E87" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>190</v>
       </c>
@@ -3372,11 +2615,8 @@
       <c r="D88" s="4">
         <v>36800</v>
       </c>
-      <c r="E88" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>191</v>
       </c>
@@ -3389,45 +2629,30 @@
       <c r="D89" s="4">
         <v>36800</v>
       </c>
-      <c r="E89" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D90" s="4">
         <v>37165</v>
       </c>
-      <c r="E90" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D91" s="4">
         <v>37165</v>
       </c>
-      <c r="E91" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>168</v>
       </c>
@@ -3440,11 +2665,8 @@
       <c r="D92" s="4">
         <v>32905</v>
       </c>
-      <c r="E92" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>169</v>
       </c>
@@ -3457,28 +2679,16 @@
       <c r="D93" s="4">
         <v>32721</v>
       </c>
-      <c r="E93" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E94" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>324</v>
       </c>
@@ -3488,14 +2698,8 @@
       <c r="C95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E95" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>78</v>
       </c>
@@ -3508,11 +2712,8 @@
       <c r="D96" s="4">
         <v>36495</v>
       </c>
-      <c r="E96" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>145</v>
       </c>
@@ -3525,11 +2726,8 @@
       <c r="D97" s="4">
         <v>36495</v>
       </c>
-      <c r="E97" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>146</v>
       </c>
@@ -3542,11 +2740,8 @@
       <c r="D98" s="4">
         <v>36800</v>
       </c>
-      <c r="E98" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>325</v>
       </c>
@@ -3559,11 +2754,8 @@
       <c r="D99" s="5">
         <v>31822</v>
       </c>
-      <c r="E99" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>333</v>
       </c>
@@ -3576,11 +2768,8 @@
       <c r="D100" s="4">
         <v>33520</v>
       </c>
-      <c r="E100" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>334</v>
       </c>
@@ -3593,11 +2782,8 @@
       <c r="D101" s="9">
         <v>34020</v>
       </c>
-      <c r="E101" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>278</v>
       </c>
@@ -3610,11 +2796,8 @@
       <c r="D102" s="9">
         <v>34020</v>
       </c>
-      <c r="E102" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>330</v>
       </c>
@@ -3627,11 +2810,8 @@
       <c r="D103" s="4">
         <v>32478</v>
       </c>
-      <c r="E103" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>57</v>
       </c>
@@ -3644,11 +2824,8 @@
       <c r="D104" s="4">
         <v>33158</v>
       </c>
-      <c r="E104" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>337</v>
       </c>
@@ -3661,11 +2838,8 @@
       <c r="D105" s="4">
         <v>33158</v>
       </c>
-      <c r="E105" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>338</v>
       </c>
@@ -3678,11 +2852,8 @@
       <c r="D106" s="4">
         <v>33520</v>
       </c>
-      <c r="E106" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>252</v>
       </c>
@@ -3695,28 +2866,16 @@
       <c r="D107" s="4">
         <v>33257</v>
       </c>
-      <c r="E107" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D108" s="9">
         <v>34608</v>
       </c>
-      <c r="E108" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>237</v>
       </c>
@@ -3729,11 +2888,8 @@
       <c r="D109" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E109" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>238</v>
       </c>
@@ -3746,45 +2902,24 @@
       <c r="D110" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E110" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D111" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E111" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D112" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E112" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>239</v>
       </c>
@@ -3797,11 +2932,8 @@
       <c r="D113" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E113" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>233</v>
       </c>
@@ -3814,11 +2946,8 @@
       <c r="D114" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E114" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>240</v>
       </c>
@@ -3831,11 +2960,8 @@
       <c r="D115" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E115" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>241</v>
       </c>
@@ -3848,11 +2974,8 @@
       <c r="D116" s="9">
         <v>35977</v>
       </c>
-      <c r="E116" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>242</v>
       </c>
@@ -3865,11 +2988,8 @@
       <c r="D117" s="9">
         <v>35977</v>
       </c>
-      <c r="E117" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>243</v>
       </c>
@@ -3882,11 +3002,8 @@
       <c r="D118" s="9">
         <v>36100</v>
       </c>
-      <c r="E118" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>244</v>
       </c>
@@ -3899,45 +3016,30 @@
       <c r="D119" s="9">
         <v>36100</v>
       </c>
-      <c r="E119" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D120" s="9">
         <v>36465</v>
       </c>
-      <c r="E120" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D121" s="9">
         <v>36465</v>
       </c>
-      <c r="E121" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>247</v>
       </c>
@@ -3950,28 +3052,19 @@
       <c r="D122" s="9">
         <v>36708</v>
       </c>
-      <c r="E122" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D123" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E123" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>226</v>
       </c>
@@ -3981,14 +3074,12 @@
       <c r="C124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E124" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="4"/>
+      <c r="E124" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>227</v>
       </c>
@@ -4001,11 +3092,8 @@
       <c r="D125" s="9">
         <v>33628</v>
       </c>
-      <c r="E125" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>228</v>
       </c>
@@ -4018,11 +3106,8 @@
       <c r="D126" s="4">
         <v>34001</v>
       </c>
-      <c r="E126" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>229</v>
       </c>
@@ -4035,11 +3120,8 @@
       <c r="D127" s="9">
         <v>34608</v>
       </c>
-      <c r="E127" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>236</v>
       </c>
@@ -4052,11 +3134,8 @@
       <c r="D128" s="9">
         <v>34608</v>
       </c>
-      <c r="E128" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>263</v>
       </c>
@@ -4069,11 +3148,8 @@
       <c r="D129" s="4">
         <v>34881</v>
       </c>
-      <c r="E129" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>266</v>
       </c>
@@ -4086,11 +3162,8 @@
       <c r="D130" s="4">
         <v>35977</v>
       </c>
-      <c r="E130" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>261</v>
       </c>
@@ -4103,11 +3176,8 @@
       <c r="D131" s="4">
         <v>36708</v>
       </c>
-      <c r="E131" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
@@ -4120,11 +3190,8 @@
       <c r="D132" s="4">
         <v>36708</v>
       </c>
-      <c r="E132" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>256</v>
       </c>
@@ -4137,11 +3204,8 @@
       <c r="D133" s="4">
         <v>34881</v>
       </c>
-      <c r="E133" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>257</v>
       </c>
@@ -4154,11 +3218,8 @@
       <c r="D134" s="4">
         <v>34881</v>
       </c>
-      <c r="E134" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>258</v>
       </c>
@@ -4171,11 +3232,8 @@
       <c r="D135" s="4">
         <v>34881</v>
       </c>
-      <c r="E135" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>254</v>
       </c>
@@ -4188,11 +3246,8 @@
       <c r="D136" s="4">
         <v>35278</v>
       </c>
-      <c r="E136" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>255</v>
       </c>
@@ -4205,11 +3260,8 @@
       <c r="D137" s="4">
         <v>35643</v>
       </c>
-      <c r="E137" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>267</v>
       </c>
@@ -4222,11 +3274,8 @@
       <c r="D138" s="4">
         <v>35643</v>
       </c>
-      <c r="E138" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>264</v>
       </c>
@@ -4239,11 +3288,8 @@
       <c r="D139" s="4">
         <v>35643</v>
       </c>
-      <c r="E139" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>265</v>
       </c>
@@ -4256,79 +3302,40 @@
       <c r="D140" s="4">
         <v>35977</v>
       </c>
-      <c r="E140" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D141" s="4">
         <v>37073</v>
       </c>
-      <c r="E141" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D142" s="4">
         <v>37073</v>
       </c>
-      <c r="E142" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D143" s="4">
         <v>37073</v>
       </c>
-      <c r="E143" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D144" s="4">
         <v>37073</v>
       </c>
-      <c r="E144" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>18</v>
       </c>
@@ -4341,11 +3348,8 @@
       <c r="D145" s="4">
         <v>35348</v>
       </c>
-      <c r="E145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>67</v>
       </c>
@@ -4358,11 +3362,8 @@
       <c r="D146" s="4">
         <v>35348</v>
       </c>
-      <c r="E146" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>19</v>
       </c>
@@ -4375,11 +3376,8 @@
       <c r="D147" s="4">
         <v>35711</v>
       </c>
-      <c r="E147" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>68</v>
       </c>
@@ -4392,11 +3390,8 @@
       <c r="D148" s="4">
         <v>35711</v>
       </c>
-      <c r="E148" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>63</v>
       </c>
@@ -4409,11 +3404,8 @@
       <c r="D149" s="4">
         <v>36065</v>
       </c>
-      <c r="E149" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>61</v>
       </c>
@@ -4426,11 +3418,8 @@
       <c r="D150" s="4">
         <v>36065</v>
       </c>
-      <c r="E150" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
@@ -4443,11 +3432,8 @@
       <c r="D151" s="4">
         <v>36413</v>
       </c>
-      <c r="E151" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>65</v>
       </c>
@@ -4460,113 +3446,68 @@
       <c r="D152" s="4">
         <v>36413</v>
       </c>
-      <c r="E152" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E153" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E154" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C155" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E155" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C156" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E156" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D157" s="5">
         <v>37165</v>
       </c>
-      <c r="E157" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D158" s="5">
         <v>37165</v>
       </c>
-      <c r="E158" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>59</v>
       </c>
@@ -4579,11 +3520,8 @@
       <c r="D159" s="9">
         <v>34339</v>
       </c>
-      <c r="E159" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>59</v>
       </c>
@@ -4596,11 +3534,8 @@
       <c r="D160" s="9">
         <v>34339</v>
       </c>
-      <c r="E160" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>60</v>
       </c>
@@ -4613,11 +3548,8 @@
       <c r="D161" s="4">
         <v>34620</v>
       </c>
-      <c r="E161" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>66</v>
       </c>
@@ -4630,11 +3562,8 @@
       <c r="D162" s="4">
         <v>34973</v>
       </c>
-      <c r="E162" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>82</v>
       </c>
@@ -4647,11 +3576,8 @@
       <c r="D163" s="4">
         <v>34639</v>
       </c>
-      <c r="E163" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>90</v>
       </c>
@@ -4664,113 +3590,56 @@
       <c r="D164" s="4">
         <v>36404</v>
       </c>
-      <c r="E164" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D165" s="4">
         <v>36557</v>
       </c>
-      <c r="E165" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D166" s="4">
         <v>36557</v>
       </c>
-      <c r="E166" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D167" s="4">
         <v>36800</v>
       </c>
-      <c r="E167" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D168" s="4">
         <v>36800</v>
       </c>
-      <c r="E168" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D169" s="4">
         <v>37165</v>
       </c>
-      <c r="E169" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D170" s="4">
         <v>37165</v>
       </c>
-      <c r="E170" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>83</v>
       </c>
@@ -4783,11 +3652,8 @@
       <c r="D171" s="4">
         <v>34639</v>
       </c>
-      <c r="E171" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>77</v>
       </c>
@@ -4800,11 +3666,8 @@
       <c r="D172" s="4">
         <v>34972</v>
       </c>
-      <c r="E172" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>84</v>
       </c>
@@ -4817,11 +3680,8 @@
       <c r="D173" s="4">
         <v>34972</v>
       </c>
-      <c r="E173" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>85</v>
       </c>
@@ -4834,11 +3694,8 @@
       <c r="D174" s="9">
         <v>35734</v>
       </c>
-      <c r="E174" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>86</v>
       </c>
@@ -4851,11 +3708,8 @@
       <c r="D175" s="4">
         <v>35704</v>
       </c>
-      <c r="E175" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>87</v>
       </c>
@@ -4868,28 +3722,16 @@
       <c r="D176" s="4">
         <v>36039</v>
       </c>
-      <c r="E176" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D177" s="4">
         <v>36039</v>
       </c>
-      <c r="E177" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>89</v>
       </c>
@@ -4902,45 +3744,24 @@
       <c r="D178" s="4">
         <v>36404</v>
       </c>
-      <c r="E178" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D179" s="4">
         <v>36465</v>
       </c>
-      <c r="E179" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D180" s="4">
         <v>36465</v>
       </c>
-      <c r="E180" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>318</v>
       </c>
@@ -4953,11 +3774,8 @@
       <c r="D181" s="4">
         <v>33909</v>
       </c>
-      <c r="E181" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>321</v>
       </c>
@@ -4970,11 +3788,8 @@
       <c r="D182" s="4">
         <v>33140</v>
       </c>
-      <c r="E182" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>170</v>
       </c>
@@ -4987,11 +3802,8 @@
       <c r="D183" s="4">
         <v>34060</v>
       </c>
-      <c r="E183" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>179</v>
       </c>
@@ -5004,11 +3816,8 @@
       <c r="D184" s="7">
         <v>36178</v>
       </c>
-      <c r="E184" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>179</v>
       </c>
@@ -5021,11 +3830,8 @@
       <c r="D185" s="7">
         <v>36178</v>
       </c>
-      <c r="E185" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>180</v>
       </c>
@@ -5038,11 +3844,8 @@
       <c r="D186" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E186" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>182</v>
       </c>
@@ -5055,11 +3858,8 @@
       <c r="D187" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E187" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>183</v>
       </c>
@@ -5072,11 +3872,8 @@
       <c r="D188" s="4">
         <v>36465</v>
       </c>
-      <c r="E188" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>184</v>
       </c>
@@ -5089,11 +3886,8 @@
       <c r="D189" s="4">
         <v>36800</v>
       </c>
-      <c r="E189" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>185</v>
       </c>
@@ -5106,45 +3900,27 @@
       <c r="D190" s="4">
         <v>36800</v>
       </c>
-      <c r="E190" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D191" s="4">
         <v>36923</v>
       </c>
-      <c r="E191" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C192" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D192" s="5">
         <v>36923</v>
       </c>
-      <c r="E192" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>171</v>
       </c>
@@ -5157,11 +3933,8 @@
       <c r="D193" s="4">
         <v>33695</v>
       </c>
-      <c r="E193" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>172</v>
       </c>
@@ -5174,11 +3947,8 @@
       <c r="D194" s="4">
         <v>35217</v>
       </c>
-      <c r="E194" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>173</v>
       </c>
@@ -5191,11 +3961,8 @@
       <c r="D195" s="4">
         <v>35217</v>
       </c>
-      <c r="E195" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>174</v>
       </c>
@@ -5208,11 +3975,8 @@
       <c r="D196" s="4">
         <v>35519</v>
       </c>
-      <c r="E196" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>175</v>
       </c>
@@ -5225,11 +3989,8 @@
       <c r="D197" s="4">
         <v>35519</v>
       </c>
-      <c r="E197" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>176</v>
       </c>
@@ -5242,11 +4003,8 @@
       <c r="D198" s="9">
         <v>36045</v>
       </c>
-      <c r="E198" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>176</v>
       </c>
@@ -5259,11 +4017,8 @@
       <c r="D199" s="9">
         <v>36045</v>
       </c>
-      <c r="E199" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>176</v>
       </c>
@@ -5276,11 +4031,8 @@
       <c r="D200" s="9">
         <v>36045</v>
       </c>
-      <c r="E200" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>177</v>
       </c>
@@ -5293,11 +4045,8 @@
       <c r="D201" s="9">
         <v>36045</v>
       </c>
-      <c r="E201" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>177</v>
       </c>
@@ -5310,11 +4059,8 @@
       <c r="D202" s="9">
         <v>36045</v>
       </c>
-      <c r="E202" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>178</v>
       </c>
@@ -5327,11 +4073,8 @@
       <c r="D203" s="7">
         <v>36178</v>
       </c>
-      <c r="E203" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>328</v>
       </c>
@@ -5344,11 +4087,8 @@
       <c r="D204" s="4">
         <v>31472</v>
       </c>
-      <c r="E204" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>225</v>
       </c>
@@ -5361,45 +4101,26 @@
       <c r="D205" s="5">
         <v>32118</v>
       </c>
-      <c r="E205" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="C206" s="4"/>
       <c r="D206" s="4">
         <v>37012</v>
       </c>
-      <c r="E206" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="C207" s="4"/>
       <c r="D207" s="4">
         <v>37012</v>
       </c>
-      <c r="E207" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>279</v>
       </c>
@@ -5412,11 +4133,8 @@
       <c r="D208" s="10">
         <v>35777</v>
       </c>
-      <c r="E208" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>280</v>
       </c>
@@ -5429,11 +4147,8 @@
       <c r="D209" s="4">
         <v>36069</v>
       </c>
-      <c r="E209" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>284</v>
       </c>
@@ -5446,11 +4161,8 @@
       <c r="D210" s="4">
         <v>36069</v>
       </c>
-      <c r="E210" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>281</v>
       </c>
@@ -5463,62 +4175,35 @@
       <c r="D211" s="4">
         <v>36404</v>
       </c>
-      <c r="E211" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D212" s="4">
         <v>36404</v>
       </c>
-      <c r="E212" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D213" s="4">
         <v>37073</v>
       </c>
-      <c r="E213" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D214" s="4">
         <v>37073</v>
       </c>
-      <c r="E214" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>274</v>
       </c>
@@ -5531,11 +4216,8 @@
       <c r="D215" s="4">
         <v>32174</v>
       </c>
-      <c r="E215" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>166</v>
       </c>
@@ -5545,14 +4227,9 @@
       <c r="C216" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E216" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -5565,11 +4242,8 @@
       <c r="D217" s="4">
         <v>35035</v>
       </c>
-      <c r="E217" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -5582,11 +4256,8 @@
       <c r="D218" s="4">
         <v>35035</v>
       </c>
-      <c r="E218" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>167</v>
       </c>
@@ -5599,11 +4270,8 @@
       <c r="D219" s="4">
         <v>35462</v>
       </c>
-      <c r="E219" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>271</v>
       </c>
@@ -5616,62 +4284,38 @@
       <c r="D220" s="4">
         <v>35462</v>
       </c>
-      <c r="E220" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D221" s="4">
         <v>36800</v>
       </c>
-      <c r="E221" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C222" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="4">
         <v>37165</v>
       </c>
-      <c r="E222" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C223" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D223" s="4">
         <v>37165</v>
       </c>
-      <c r="E223" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>312</v>
       </c>
@@ -5684,11 +4328,8 @@
       <c r="D224" s="4">
         <v>32752</v>
       </c>
-      <c r="E224" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>326</v>
       </c>
@@ -5701,11 +4342,8 @@
       <c r="D225" s="4">
         <v>32752</v>
       </c>
-      <c r="E225" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>327</v>
       </c>
@@ -5718,11 +4356,8 @@
       <c r="D226" s="10">
         <v>33899</v>
       </c>
-      <c r="E226" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>342</v>
       </c>
@@ -5735,11 +4370,8 @@
       <c r="D227" s="7">
         <v>31423</v>
       </c>
-      <c r="E227" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>347</v>
       </c>
@@ -5752,28 +4384,19 @@
       <c r="D228" s="7">
         <v>31423</v>
       </c>
-      <c r="E228" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D229" s="4">
         <v>36065</v>
       </c>
-      <c r="E229" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>158</v>
       </c>
@@ -5786,45 +4409,30 @@
       <c r="D230" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E230" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C231" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E231" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C232" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E232" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>150</v>
       </c>
@@ -5837,11 +4445,8 @@
       <c r="D233" s="4">
         <v>36065</v>
       </c>
-      <c r="E233" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>151</v>
       </c>
@@ -5854,11 +4459,8 @@
       <c r="D234" s="7">
         <v>36192</v>
       </c>
-      <c r="E234" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>152</v>
       </c>
@@ -5871,11 +4473,8 @@
       <c r="D235" s="4">
         <v>36192</v>
       </c>
-      <c r="E235" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>153</v>
       </c>
@@ -5888,11 +4487,8 @@
       <c r="D236" s="4">
         <v>36443</v>
       </c>
-      <c r="E236" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>153</v>
       </c>
@@ -5905,11 +4501,8 @@
       <c r="D237" s="4">
         <v>36443</v>
       </c>
-      <c r="E237" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>154</v>
       </c>
@@ -5922,11 +4515,8 @@
       <c r="D238" s="4">
         <v>36443</v>
       </c>
-      <c r="E238" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>154</v>
       </c>
@@ -5939,45 +4529,24 @@
       <c r="D239" s="4">
         <v>36443</v>
       </c>
-      <c r="E239" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D240" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E240" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D241" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E241" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>329</v>
       </c>
@@ -5990,11 +4559,8 @@
       <c r="D242" s="4">
         <v>32905</v>
       </c>
-      <c r="E242" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>336</v>
       </c>
@@ -6004,14 +4570,8 @@
       <c r="C243" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E243" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>331</v>
       </c>
@@ -6024,11 +4584,8 @@
       <c r="D244" s="4">
         <v>32478</v>
       </c>
-      <c r="E244" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>314</v>
       </c>
@@ -6041,11 +4598,8 @@
       <c r="D245" s="4">
         <v>31321</v>
       </c>
-      <c r="E245" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>299</v>
       </c>
@@ -6058,11 +4612,8 @@
       <c r="D246" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E246" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>309</v>
       </c>
@@ -6075,45 +4626,24 @@
       <c r="D247" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E247" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D248" s="5">
         <v>35339</v>
       </c>
-      <c r="E248" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D249" s="5">
         <v>35339</v>
       </c>
-      <c r="E249" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>297</v>
       </c>
@@ -6126,11 +4656,8 @@
       <c r="D250" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E250" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>303</v>
       </c>
@@ -6143,11 +4670,8 @@
       <c r="D251" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E251" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>310</v>
       </c>
@@ -6160,11 +4684,8 @@
       <c r="D252" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E252" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>305</v>
       </c>
@@ -6177,11 +4698,8 @@
       <c r="D253" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E253" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>311</v>
       </c>
@@ -6194,11 +4712,8 @@
       <c r="D254" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E254" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>307</v>
       </c>
@@ -6211,11 +4726,8 @@
       <c r="D255" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E255" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>308</v>
       </c>
@@ -6228,11 +4740,8 @@
       <c r="D256" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E256" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>288</v>
       </c>
@@ -6245,11 +4754,8 @@
       <c r="D257" s="4">
         <v>33878</v>
       </c>
-      <c r="E257" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>136</v>
       </c>
@@ -6262,11 +4768,8 @@
       <c r="D258" s="4">
         <v>34274</v>
       </c>
-      <c r="E258" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>100</v>
       </c>
@@ -6279,11 +4782,8 @@
       <c r="D259" s="4">
         <v>34759</v>
       </c>
-      <c r="E259" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>101</v>
       </c>
@@ -6296,11 +4796,8 @@
       <c r="D260" s="4">
         <v>34992</v>
       </c>
-      <c r="E260" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>102</v>
       </c>
@@ -6313,11 +4810,8 @@
       <c r="D261" s="4">
         <v>34992</v>
       </c>
-      <c r="E261" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>103</v>
       </c>
@@ -6330,11 +4824,8 @@
       <c r="D262" s="4">
         <v>35342</v>
       </c>
-      <c r="E262" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>56</v>
       </c>
@@ -6347,11 +4838,8 @@
       <c r="D263" s="4">
         <v>35342</v>
       </c>
-      <c r="E263" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>104</v>
       </c>
@@ -6364,11 +4852,8 @@
       <c r="D264" s="4">
         <v>35499</v>
       </c>
-      <c r="E264" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>105</v>
       </c>
@@ -6381,11 +4866,8 @@
       <c r="D265" s="4">
         <v>35499</v>
       </c>
-      <c r="E265" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>106</v>
       </c>
@@ -6398,11 +4880,8 @@
       <c r="D266" s="4">
         <v>35713</v>
       </c>
-      <c r="E266" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>107</v>
       </c>
@@ -6415,11 +4894,8 @@
       <c r="D267" s="9">
         <v>35844</v>
       </c>
-      <c r="E267" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>108</v>
       </c>
@@ -6432,11 +4908,8 @@
       <c r="D268" s="4">
         <v>36089</v>
       </c>
-      <c r="E268" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>109</v>
       </c>
@@ -6449,11 +4922,8 @@
       <c r="D269" s="4">
         <v>36089</v>
       </c>
-      <c r="E269" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>110</v>
       </c>
@@ -6466,11 +4936,8 @@
       <c r="D270" s="4">
         <v>36130</v>
       </c>
-      <c r="E270" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>111</v>
       </c>
@@ -6483,11 +4950,8 @@
       <c r="D271" s="4">
         <v>36130</v>
       </c>
-      <c r="E271" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>112</v>
       </c>
@@ -6500,11 +4964,8 @@
       <c r="D272" s="4">
         <v>36451</v>
       </c>
-      <c r="E272" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>113</v>
       </c>
@@ -6517,28 +4978,19 @@
       <c r="D273" s="4">
         <v>36434</v>
       </c>
-      <c r="E273" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D274" s="4">
         <v>36800</v>
       </c>
-      <c r="E274" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>55</v>
       </c>
@@ -6551,113 +5003,65 @@
       <c r="D275" s="4">
         <v>33420</v>
       </c>
-      <c r="E275" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C276" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D276" s="4">
         <v>36800</v>
       </c>
-      <c r="E276" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C277" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D277" s="4">
         <v>36861</v>
       </c>
-      <c r="E277" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C278" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D278" s="4">
         <v>36861</v>
       </c>
-      <c r="E278" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D279" s="4">
         <v>37135</v>
       </c>
-      <c r="E279" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D280" s="4">
         <v>37165</v>
       </c>
-      <c r="E280" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D281" s="4">
         <v>37165</v>
       </c>
-      <c r="E281" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>122</v>
       </c>
@@ -6670,11 +5074,8 @@
       <c r="D282" s="4">
         <v>34045</v>
       </c>
-      <c r="E282" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>99</v>
       </c>
@@ -6687,11 +5088,8 @@
       <c r="D283" s="4">
         <v>34045</v>
       </c>
-      <c r="E283" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>343</v>
       </c>
@@ -6701,14 +5099,8 @@
       <c r="C284" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E284" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>37</v>
       </c>
@@ -6721,11 +5113,8 @@
       <c r="D285" s="4">
         <v>33298</v>
       </c>
-      <c r="E285" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>344</v>
       </c>
@@ -6735,14 +5124,8 @@
       <c r="C286" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D286" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E286" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>344</v>
       </c>
@@ -6752,14 +5135,8 @@
       <c r="C287" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D287" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E287" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>39</v>
       </c>
@@ -6772,11 +5149,8 @@
       <c r="D288" s="4">
         <v>34243</v>
       </c>
-      <c r="E288" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>45</v>
       </c>
@@ -6786,14 +5160,12 @@
       <c r="C289" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E289" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D289" s="4"/>
+      <c r="E289" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>46</v>
       </c>
@@ -6806,11 +5178,8 @@
       <c r="D290" s="9">
         <v>35823</v>
       </c>
-      <c r="E290" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>47</v>
       </c>
@@ -6823,11 +5192,8 @@
       <c r="D291" s="3">
         <v>36066</v>
       </c>
-      <c r="E291" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>48</v>
       </c>
@@ -6840,11 +5206,8 @@
       <c r="D292" s="3">
         <v>36066</v>
       </c>
-      <c r="E292" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>49</v>
       </c>
@@ -6857,11 +5220,8 @@
       <c r="D293" s="4">
         <v>36404</v>
       </c>
-      <c r="E293" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>50</v>
       </c>
@@ -6874,11 +5234,8 @@
       <c r="D294" s="4">
         <v>36557</v>
       </c>
-      <c r="E294" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>51</v>
       </c>
@@ -6891,62 +5248,32 @@
       <c r="D295" s="4">
         <v>36557</v>
       </c>
-      <c r="E295" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D296" s="4">
         <v>36861</v>
       </c>
-      <c r="E296" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D297" s="4">
         <v>36861</v>
       </c>
-      <c r="E297" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="D298" s="4">
         <v>37196</v>
       </c>
-      <c r="E298" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>40</v>
       </c>
@@ -6959,11 +5286,8 @@
       <c r="D299" s="4">
         <v>34243</v>
       </c>
-      <c r="E299" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>41</v>
       </c>
@@ -6976,11 +5300,8 @@
       <c r="D300" s="4">
         <v>34608</v>
       </c>
-      <c r="E300" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>42</v>
       </c>
@@ -6993,11 +5314,8 @@
       <c r="D301" s="4">
         <v>34978</v>
       </c>
-      <c r="E301" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>43</v>
       </c>
@@ -7010,11 +5328,8 @@
       <c r="D302" s="4">
         <v>35348</v>
       </c>
-      <c r="E302" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>44</v>
       </c>
@@ -7027,11 +5342,8 @@
       <c r="D303" s="4">
         <v>35690</v>
       </c>
-      <c r="E303" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>286</v>
       </c>
@@ -7044,11 +5356,8 @@
       <c r="D304" s="4">
         <v>33147</v>
       </c>
-      <c r="E304" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>259</v>
       </c>
@@ -7061,11 +5370,8 @@
       <c r="D305" s="4">
         <v>33270</v>
       </c>
-      <c r="E305" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>80</v>
       </c>
@@ -7078,11 +5384,8 @@
       <c r="D306" s="4">
         <v>33543</v>
       </c>
-      <c r="E306" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>313</v>
       </c>
@@ -7095,11 +5398,8 @@
       <c r="D307" s="4">
         <v>32203</v>
       </c>
-      <c r="E307" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>316</v>
       </c>
@@ -7112,11 +5412,8 @@
       <c r="D308" s="4">
         <v>32568</v>
       </c>
-      <c r="E308" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>319</v>
       </c>
@@ -7129,11 +5426,8 @@
       <c r="D309" s="4">
         <v>32786</v>
       </c>
-      <c r="E309" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>289</v>
       </c>
@@ -7146,11 +5440,8 @@
       <c r="D310" s="4">
         <v>35004</v>
       </c>
-      <c r="E310" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>290</v>
       </c>
@@ -7163,11 +5454,8 @@
       <c r="D311" s="4">
         <v>35004</v>
       </c>
-      <c r="E311" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>291</v>
       </c>
@@ -7180,11 +5468,8 @@
       <c r="D312" s="4">
         <v>35612</v>
       </c>
-      <c r="E312" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>292</v>
       </c>
@@ -7197,11 +5482,8 @@
       <c r="D313" s="4">
         <v>35612</v>
       </c>
-      <c r="E313" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>293</v>
       </c>
@@ -7214,11 +5496,8 @@
       <c r="D314" s="4">
         <v>35612</v>
       </c>
-      <c r="E314" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>294</v>
       </c>
@@ -7231,11 +5510,8 @@
       <c r="D315" s="4">
         <v>35612</v>
       </c>
-      <c r="E315" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>346</v>
       </c>
@@ -7247,20 +5523,13 @@
       </c>
       <c r="D316" s="2">
         <v>31093</v>
-      </c>
-      <c r="E316" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D316">
     <sortCondition ref="A1:A316"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E7 E2" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/NewlyCreatedData/Checks/BirthDates.xlsx
+++ b/data/NewlyCreatedData/Checks/BirthDates.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\monas\Git\repo\glt\GoldenLionTamarins\data\NewlyCreatedData\Checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4903C-FC87-4E02-B344-B8275A2E086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3146DBF7-37B8-470B-8E99-7490B70A3A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="489">
   <si>
     <t>Tatoo</t>
   </si>
@@ -1071,9 +1082,6 @@
     <t>RT2</t>
   </si>
   <si>
-    <t>Birth date</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -1084,6 +1092,417 @@
   </si>
   <si>
     <t>01/90 or 01/92</t>
+  </si>
+  <si>
+    <t>Birth_date</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>01/03/93</t>
+  </si>
+  <si>
+    <t>01/02/92</t>
+  </si>
+  <si>
+    <t>06/11/95</t>
+  </si>
+  <si>
+    <t>01/10/00</t>
+  </si>
+  <si>
+    <t>01/11/00</t>
+  </si>
+  <si>
+    <t>01/01/01</t>
+  </si>
+  <si>
+    <t>15/09/97</t>
+  </si>
+  <si>
+    <t>24/09/98</t>
+  </si>
+  <si>
+    <t>15/09/99</t>
+  </si>
+  <si>
+    <t>01/01/00</t>
+  </si>
+  <si>
+    <t>01/07/88</t>
+  </si>
+  <si>
+    <t>01/06/91</t>
+  </si>
+  <si>
+    <t>16/09/96</t>
+  </si>
+  <si>
+    <t>01/11/99</t>
+  </si>
+  <si>
+    <t>02/05/90</t>
+  </si>
+  <si>
+    <t>31/12/90</t>
+  </si>
+  <si>
+    <t>01/03/94</t>
+  </si>
+  <si>
+    <t>01/02/95</t>
+  </si>
+  <si>
+    <t>01/10/95</t>
+  </si>
+  <si>
+    <t>01/10/96</t>
+  </si>
+  <si>
+    <t>01/07/98</t>
+  </si>
+  <si>
+    <t>01/05/99</t>
+  </si>
+  <si>
+    <t>01/07/01</t>
+  </si>
+  <si>
+    <t>27/12/91</t>
+  </si>
+  <si>
+    <t>01/04/93</t>
+  </si>
+  <si>
+    <t>20/03/89</t>
+  </si>
+  <si>
+    <t>01/02/90</t>
+  </si>
+  <si>
+    <t>16/12/91</t>
+  </si>
+  <si>
+    <t>01/12/91</t>
+  </si>
+  <si>
+    <t>01/09/94</t>
+  </si>
+  <si>
+    <t>13/11/92</t>
+  </si>
+  <si>
+    <t>01/05/93</t>
+  </si>
+  <si>
+    <t>01/11/94</t>
+  </si>
+  <si>
+    <t>01/04/95</t>
+  </si>
+  <si>
+    <t>00/01/00</t>
+  </si>
+  <si>
+    <t>06/04/91</t>
+  </si>
+  <si>
+    <t>01/09/91</t>
+  </si>
+  <si>
+    <t>01/12/96</t>
+  </si>
+  <si>
+    <t>01/10/98</t>
+  </si>
+  <si>
+    <t>01/10/99</t>
+  </si>
+  <si>
+    <t>01/06/92</t>
+  </si>
+  <si>
+    <t>01/08/86</t>
+  </si>
+  <si>
+    <t>01/06/98</t>
+  </si>
+  <si>
+    <t>01/07/00</t>
+  </si>
+  <si>
+    <t>01/10/94</t>
+  </si>
+  <si>
+    <t>01/11/95</t>
+  </si>
+  <si>
+    <t>01/09/96</t>
+  </si>
+  <si>
+    <t>01/09/97</t>
+  </si>
+  <si>
+    <t>01/12/98</t>
+  </si>
+  <si>
+    <t>01/10/01</t>
+  </si>
+  <si>
+    <t>01/02/91</t>
+  </si>
+  <si>
+    <t>01/04/91</t>
+  </si>
+  <si>
+    <t>22/04/99</t>
+  </si>
+  <si>
+    <t>01/08/89</t>
+  </si>
+  <si>
+    <t>01/12/99</t>
+  </si>
+  <si>
+    <t>14/02/87</t>
+  </si>
+  <si>
+    <t>09/10/91</t>
+  </si>
+  <si>
+    <t>20/02/93</t>
+  </si>
+  <si>
+    <t>01/12/88</t>
+  </si>
+  <si>
+    <t>12/10/90</t>
+  </si>
+  <si>
+    <t>19/01/91</t>
+  </si>
+  <si>
+    <t>01/06/97</t>
+  </si>
+  <si>
+    <t>01/11/98</t>
+  </si>
+  <si>
+    <t>25/01/92</t>
+  </si>
+  <si>
+    <t>01/02/93</t>
+  </si>
+  <si>
+    <t>01/07/95</t>
+  </si>
+  <si>
+    <t>01/08/96</t>
+  </si>
+  <si>
+    <t>01/08/97</t>
+  </si>
+  <si>
+    <t>10/10/96</t>
+  </si>
+  <si>
+    <t>08/10/97</t>
+  </si>
+  <si>
+    <t>27/09/98</t>
+  </si>
+  <si>
+    <t>10/09/99</t>
+  </si>
+  <si>
+    <t>05/01/94</t>
+  </si>
+  <si>
+    <t>13/10/94</t>
+  </si>
+  <si>
+    <t>01/09/99</t>
+  </si>
+  <si>
+    <t>01/02/00</t>
+  </si>
+  <si>
+    <t>30/09/95</t>
+  </si>
+  <si>
+    <t>31/10/97</t>
+  </si>
+  <si>
+    <t>01/10/97</t>
+  </si>
+  <si>
+    <t>01/09/98</t>
+  </si>
+  <si>
+    <t>01/11/92</t>
+  </si>
+  <si>
+    <t>24/09/90</t>
+  </si>
+  <si>
+    <t>18/01/99</t>
+  </si>
+  <si>
+    <t>01/02/01</t>
+  </si>
+  <si>
+    <t>01/04/92</t>
+  </si>
+  <si>
+    <t>01/06/96</t>
+  </si>
+  <si>
+    <t>30/03/97</t>
+  </si>
+  <si>
+    <t>07/09/98</t>
+  </si>
+  <si>
+    <t>01/03/86</t>
+  </si>
+  <si>
+    <t>07/12/87</t>
+  </si>
+  <si>
+    <t>01/05/01</t>
+  </si>
+  <si>
+    <t>13/12/97</t>
+  </si>
+  <si>
+    <t>01/02/88</t>
+  </si>
+  <si>
+    <t>02/12/95</t>
+  </si>
+  <si>
+    <t>01/02/97</t>
+  </si>
+  <si>
+    <t>01/09/89</t>
+  </si>
+  <si>
+    <t>22/10/92</t>
+  </si>
+  <si>
+    <t>11/01/86</t>
+  </si>
+  <si>
+    <t>01/03/00</t>
+  </si>
+  <si>
+    <t>01/02/99</t>
+  </si>
+  <si>
+    <t>10/10/99</t>
+  </si>
+  <si>
+    <t>01/10/85</t>
+  </si>
+  <si>
+    <t>01/07/96</t>
+  </si>
+  <si>
+    <t>01/01/93</t>
+  </si>
+  <si>
+    <t>01/08/94</t>
+  </si>
+  <si>
+    <t>01/08/95</t>
+  </si>
+  <si>
+    <t>01/10/92</t>
+  </si>
+  <si>
+    <t>01/11/93</t>
+  </si>
+  <si>
+    <t>01/03/95</t>
+  </si>
+  <si>
+    <t>20/10/95</t>
+  </si>
+  <si>
+    <t>04/10/96</t>
+  </si>
+  <si>
+    <t>10/03/97</t>
+  </si>
+  <si>
+    <t>10/10/97</t>
+  </si>
+  <si>
+    <t>18/02/98</t>
+  </si>
+  <si>
+    <t>21/10/98</t>
+  </si>
+  <si>
+    <t>18/10/99</t>
+  </si>
+  <si>
+    <t>01/07/91</t>
+  </si>
+  <si>
+    <t>01/12/00</t>
+  </si>
+  <si>
+    <t>01/09/01</t>
+  </si>
+  <si>
+    <t>17/03/93</t>
+  </si>
+  <si>
+    <t>01/03/91</t>
+  </si>
+  <si>
+    <t>01/10/93</t>
+  </si>
+  <si>
+    <t>28/01/98</t>
+  </si>
+  <si>
+    <t>28/09/98</t>
+  </si>
+  <si>
+    <t>01/11/01</t>
+  </si>
+  <si>
+    <t>06/10/95</t>
+  </si>
+  <si>
+    <t>17/09/97</t>
+  </si>
+  <si>
+    <t>01/10/90</t>
+  </si>
+  <si>
+    <t>01/11/91</t>
+  </si>
+  <si>
+    <t>01/03/88</t>
+  </si>
+  <si>
+    <t>01/03/89</t>
+  </si>
+  <si>
+    <t>05/10/89</t>
+  </si>
+  <si>
+    <t>01/07/97</t>
+  </si>
+  <si>
+    <t>BirthDMY</t>
   </si>
 </sst>
 </file>
@@ -1097,9 +1516,9 @@
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="168" formatCode="m/d/yy"/>
     <numFmt numFmtId="169" formatCode="d/m/yy"/>
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,6 +1538,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1162,7 +1587,7 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1445,34 +1870,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="E1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1485,8 +1913,11 @@
       <c r="D2" s="4">
         <v>34029</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1499,8 +1930,11 @@
       <c r="D3" s="4">
         <v>33635</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>123</v>
       </c>
@@ -1513,46 +1947,79 @@
       <c r="D4" s="4">
         <v>35009</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="11">
         <v>36800</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="11">
         <v>36831</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D7" s="12">
         <v>36892</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D8" s="12">
         <v>36892</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
@@ -1565,8 +2032,11 @@
       <c r="D9" s="4">
         <v>35688</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>125</v>
       </c>
@@ -1579,8 +2049,11 @@
       <c r="D10" s="6">
         <v>36062</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
@@ -1593,8 +2066,11 @@
       <c r="D11" s="6">
         <v>36062</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -1607,8 +2083,11 @@
       <c r="D12" s="7">
         <v>36418</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>128</v>
       </c>
@@ -1621,8 +2100,11 @@
       <c r="D13" s="7">
         <v>36418</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -1635,8 +2117,11 @@
       <c r="D14" s="5">
         <v>36526</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>130</v>
       </c>
@@ -1649,8 +2134,11 @@
       <c r="D15" s="5">
         <v>36526</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>161</v>
       </c>
@@ -1663,8 +2151,11 @@
       <c r="D16" s="4">
         <v>32325</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>162</v>
       </c>
@@ -1677,8 +2168,11 @@
       <c r="D17" s="4">
         <v>33390</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -1691,8 +2185,11 @@
       <c r="D18" s="4">
         <v>35324</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -1705,8 +2202,11 @@
       <c r="D19" s="4">
         <v>36465</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>165</v>
       </c>
@@ -1719,8 +2219,11 @@
       <c r="D20" s="4">
         <v>36465</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -1733,8 +2236,11 @@
       <c r="D21" s="8">
         <v>32995</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>315</v>
       </c>
@@ -1747,8 +2253,11 @@
       <c r="D22" s="4">
         <v>33238</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>203</v>
       </c>
@@ -1761,8 +2270,11 @@
       <c r="D23" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>205</v>
       </c>
@@ -1775,8 +2287,11 @@
       <c r="D24" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>207</v>
       </c>
@@ -1789,8 +2304,11 @@
       <c r="D25" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>208</v>
       </c>
@@ -1803,8 +2321,11 @@
       <c r="D26" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>210</v>
       </c>
@@ -1817,8 +2338,11 @@
       <c r="D27" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>211</v>
       </c>
@@ -1831,8 +2355,11 @@
       <c r="D28" s="5">
         <v>35339</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>212</v>
       </c>
@@ -1845,8 +2372,11 @@
       <c r="D29" s="5">
         <v>35339</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>213</v>
       </c>
@@ -1859,8 +2389,11 @@
       <c r="D30" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>215</v>
       </c>
@@ -1873,8 +2406,11 @@
       <c r="D31" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>217</v>
       </c>
@@ -1887,8 +2423,11 @@
       <c r="D32" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>296</v>
       </c>
@@ -1901,8 +2440,11 @@
       <c r="D33" s="4">
         <v>33238</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
@@ -1915,8 +2457,11 @@
       <c r="D34" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>220</v>
       </c>
@@ -1929,8 +2474,11 @@
       <c r="D35" s="5">
         <v>37073</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>198</v>
       </c>
@@ -1943,8 +2491,11 @@
       <c r="D36" s="4">
         <v>33599</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>199</v>
       </c>
@@ -1957,8 +2508,11 @@
       <c r="D37" s="4">
         <v>33599</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>269</v>
       </c>
@@ -1971,8 +2525,11 @@
       <c r="D38" s="4">
         <v>34060</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>253</v>
       </c>
@@ -1985,8 +2542,11 @@
       <c r="D39" s="4">
         <v>34394</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -1999,8 +2559,11 @@
       <c r="D40" s="4">
         <v>32587</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>135</v>
       </c>
@@ -2013,8 +2576,11 @@
       <c r="D41" s="4">
         <v>32905</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>295</v>
       </c>
@@ -2027,8 +2593,11 @@
       <c r="D42" s="4">
         <v>32905</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>322</v>
       </c>
@@ -2041,8 +2610,11 @@
       <c r="D43" s="4">
         <v>33588</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>323</v>
       </c>
@@ -2055,17 +2627,28 @@
       <c r="D44" s="4">
         <v>33573</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>273</v>
       </c>
@@ -2078,8 +2661,11 @@
       <c r="D46" s="4">
         <v>34578</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>202</v>
       </c>
@@ -2092,8 +2678,11 @@
       <c r="D47" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>98</v>
       </c>
@@ -2106,8 +2695,11 @@
       <c r="D48" s="4">
         <v>33921</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
@@ -2120,8 +2712,11 @@
       <c r="D49" s="9">
         <v>34090</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>248</v>
       </c>
@@ -2134,8 +2729,11 @@
       <c r="D50" s="9">
         <v>34639</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>221</v>
       </c>
@@ -2148,8 +2746,11 @@
       <c r="D51" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>335</v>
       </c>
@@ -2159,8 +2760,14 @@
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E52" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>268</v>
       </c>
@@ -2173,8 +2780,11 @@
       <c r="D53" s="4">
         <v>33334</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>270</v>
       </c>
@@ -2187,8 +2797,11 @@
       <c r="D54" s="4">
         <v>33482</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>200</v>
       </c>
@@ -2201,8 +2814,11 @@
       <c r="D55" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>137</v>
       </c>
@@ -2215,8 +2831,11 @@
       <c r="D56" s="4">
         <v>35400</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -2229,8 +2848,11 @@
       <c r="D57" s="4">
         <v>35400</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>138</v>
       </c>
@@ -2243,40 +2865,79 @@
       <c r="D58" s="4">
         <v>35977</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D59" s="4">
         <v>36069</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D60" s="4">
         <v>36069</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D61" s="4">
         <v>36434</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D62" s="4">
         <v>36434</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>339</v>
       </c>
@@ -2289,8 +2950,11 @@
       <c r="D63" s="4">
         <v>33756</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>340</v>
       </c>
@@ -2303,8 +2967,11 @@
       <c r="D64" s="4">
         <v>31625</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>223</v>
       </c>
@@ -2317,8 +2984,11 @@
       <c r="D65" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>249</v>
       </c>
@@ -2331,8 +3001,11 @@
       <c r="D66" s="9">
         <v>36708</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2345,8 +3018,11 @@
       <c r="D67" s="4">
         <v>34608</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
@@ -2359,8 +3035,11 @@
       <c r="D68" s="4">
         <v>34608</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -2373,8 +3052,11 @@
       <c r="D69" s="4">
         <v>35004</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>14</v>
       </c>
@@ -2387,8 +3069,11 @@
       <c r="D70" s="4">
         <v>35004</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
@@ -2401,8 +3086,11 @@
       <c r="D71" s="4">
         <v>35309</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>20</v>
       </c>
@@ -2415,8 +3103,11 @@
       <c r="D72" s="4">
         <v>35309</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>22</v>
       </c>
@@ -2429,8 +3120,11 @@
       <c r="D73" s="4">
         <v>35674</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>24</v>
       </c>
@@ -2443,16 +3137,28 @@
       <c r="D74" s="4">
         <v>35674</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D75" s="4">
         <v>36130</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
@@ -2465,8 +3171,11 @@
       <c r="D76" s="4">
         <v>36130</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>29</v>
       </c>
@@ -2479,8 +3188,11 @@
       <c r="D77" s="4">
         <v>36434</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>31</v>
       </c>
@@ -2493,46 +3205,79 @@
       <c r="D78" s="4">
         <v>36434</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C79" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B81" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D81" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B82" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D82" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
@@ -2545,8 +3290,11 @@
       <c r="D83" s="4">
         <v>33270</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>4</v>
       </c>
@@ -2559,8 +3307,11 @@
       <c r="D84" s="4">
         <v>33329</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
@@ -2573,8 +3324,11 @@
       <c r="D85" s="4">
         <v>33329</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
@@ -2587,8 +3341,11 @@
       <c r="D86" s="7">
         <v>36272</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>188</v>
       </c>
@@ -2601,8 +3358,11 @@
       <c r="D87" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>190</v>
       </c>
@@ -2615,8 +3375,11 @@
       <c r="D88" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>191</v>
       </c>
@@ -2629,30 +3392,45 @@
       <c r="D89" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="C90" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D90" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="C91" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D91" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>168</v>
       </c>
@@ -2665,8 +3443,11 @@
       <c r="D92" s="4">
         <v>32905</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>169</v>
       </c>
@@ -2679,16 +3460,28 @@
       <c r="D93" s="4">
         <v>32721</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="B94" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C94" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E94" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>324</v>
       </c>
@@ -2698,8 +3491,14 @@
       <c r="C95" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E95" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>78</v>
       </c>
@@ -2712,8 +3511,11 @@
       <c r="D96" s="4">
         <v>36495</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>145</v>
       </c>
@@ -2726,8 +3528,11 @@
       <c r="D97" s="4">
         <v>36495</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>146</v>
       </c>
@@ -2740,8 +3545,11 @@
       <c r="D98" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>325</v>
       </c>
@@ -2754,8 +3562,11 @@
       <c r="D99" s="5">
         <v>31822</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>333</v>
       </c>
@@ -2768,8 +3579,11 @@
       <c r="D100" s="4">
         <v>33520</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>334</v>
       </c>
@@ -2782,8 +3596,11 @@
       <c r="D101" s="9">
         <v>34020</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>278</v>
       </c>
@@ -2796,8 +3613,11 @@
       <c r="D102" s="9">
         <v>34020</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>330</v>
       </c>
@@ -2810,8 +3630,11 @@
       <c r="D103" s="4">
         <v>32478</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>57</v>
       </c>
@@ -2824,8 +3647,11 @@
       <c r="D104" s="4">
         <v>33158</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>337</v>
       </c>
@@ -2838,8 +3664,11 @@
       <c r="D105" s="4">
         <v>33158</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>338</v>
       </c>
@@ -2852,8 +3681,11 @@
       <c r="D106" s="4">
         <v>33520</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>252</v>
       </c>
@@ -2866,16 +3698,28 @@
       <c r="D107" s="4">
         <v>33257</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="B108" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D108" s="9">
         <v>34608</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>237</v>
       </c>
@@ -2888,8 +3732,11 @@
       <c r="D109" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>238</v>
       </c>
@@ -2902,24 +3749,45 @@
       <c r="D110" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="B111" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D111" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="B112" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D112" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>239</v>
       </c>
@@ -2932,8 +3800,11 @@
       <c r="D113" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>233</v>
       </c>
@@ -2946,8 +3817,11 @@
       <c r="D114" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>240</v>
       </c>
@@ -2960,8 +3834,11 @@
       <c r="D115" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>241</v>
       </c>
@@ -2974,8 +3851,11 @@
       <c r="D116" s="9">
         <v>35977</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>242</v>
       </c>
@@ -2988,8 +3868,11 @@
       <c r="D117" s="9">
         <v>35977</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>243</v>
       </c>
@@ -3002,8 +3885,11 @@
       <c r="D118" s="9">
         <v>36100</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>244</v>
       </c>
@@ -3016,30 +3902,45 @@
       <c r="D119" s="9">
         <v>36100</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="C120" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D120" s="9">
         <v>36465</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="C121" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D121" s="9">
         <v>36465</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>247</v>
       </c>
@@ -3052,19 +3953,28 @@
       <c r="D122" s="9">
         <v>36708</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E122" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="C123" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D123" s="9" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>226</v>
       </c>
@@ -3074,12 +3984,14 @@
       <c r="C124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="4"/>
-      <c r="E124" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D124" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E124" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>227</v>
       </c>
@@ -3092,8 +4004,11 @@
       <c r="D125" s="9">
         <v>33628</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>228</v>
       </c>
@@ -3106,8 +4021,11 @@
       <c r="D126" s="4">
         <v>34001</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E126" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>229</v>
       </c>
@@ -3120,8 +4038,11 @@
       <c r="D127" s="9">
         <v>34608</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E127" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>236</v>
       </c>
@@ -3134,8 +4055,11 @@
       <c r="D128" s="9">
         <v>34608</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>263</v>
       </c>
@@ -3148,8 +4072,11 @@
       <c r="D129" s="4">
         <v>34881</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>266</v>
       </c>
@@ -3162,8 +4089,11 @@
       <c r="D130" s="4">
         <v>35977</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>261</v>
       </c>
@@ -3176,8 +4106,11 @@
       <c r="D131" s="4">
         <v>36708</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
@@ -3190,8 +4123,11 @@
       <c r="D132" s="4">
         <v>36708</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>256</v>
       </c>
@@ -3204,8 +4140,11 @@
       <c r="D133" s="4">
         <v>34881</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>257</v>
       </c>
@@ -3218,8 +4157,11 @@
       <c r="D134" s="4">
         <v>34881</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>258</v>
       </c>
@@ -3232,8 +4174,11 @@
       <c r="D135" s="4">
         <v>34881</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>254</v>
       </c>
@@ -3246,8 +4191,11 @@
       <c r="D136" s="4">
         <v>35278</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>255</v>
       </c>
@@ -3260,8 +4208,11 @@
       <c r="D137" s="4">
         <v>35643</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>267</v>
       </c>
@@ -3274,8 +4225,11 @@
       <c r="D138" s="4">
         <v>35643</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>264</v>
       </c>
@@ -3288,8 +4242,11 @@
       <c r="D139" s="4">
         <v>35643</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>265</v>
       </c>
@@ -3302,40 +4259,79 @@
       <c r="D140" s="4">
         <v>35977</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="B141" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D141" s="4">
         <v>37073</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="B142" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D142" s="4">
         <v>37073</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="B143" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D143" s="4">
         <v>37073</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="B144" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D144" s="4">
         <v>37073</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>18</v>
       </c>
@@ -3348,8 +4344,11 @@
       <c r="D145" s="4">
         <v>35348</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>67</v>
       </c>
@@ -3362,8 +4361,11 @@
       <c r="D146" s="4">
         <v>35348</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>19</v>
       </c>
@@ -3376,8 +4378,11 @@
       <c r="D147" s="4">
         <v>35711</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>68</v>
       </c>
@@ -3390,8 +4395,11 @@
       <c r="D148" s="4">
         <v>35711</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>63</v>
       </c>
@@ -3404,8 +4412,11 @@
       <c r="D149" s="4">
         <v>36065</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>61</v>
       </c>
@@ -3418,8 +4429,11 @@
       <c r="D150" s="4">
         <v>36065</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
@@ -3432,8 +4446,11 @@
       <c r="D151" s="4">
         <v>36413</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>65</v>
       </c>
@@ -3446,68 +4463,113 @@
       <c r="D152" s="4">
         <v>36413</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B153" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B154" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B155" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C155" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B156" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C156" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="B157" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D157" s="5">
         <v>37165</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="B158" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D158" s="5">
         <v>37165</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>59</v>
       </c>
@@ -3520,8 +4582,11 @@
       <c r="D159" s="9">
         <v>34339</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>59</v>
       </c>
@@ -3534,8 +4599,11 @@
       <c r="D160" s="9">
         <v>34339</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>60</v>
       </c>
@@ -3548,8 +4616,11 @@
       <c r="D161" s="4">
         <v>34620</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>66</v>
       </c>
@@ -3562,8 +4633,11 @@
       <c r="D162" s="4">
         <v>34973</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>82</v>
       </c>
@@ -3576,8 +4650,11 @@
       <c r="D163" s="4">
         <v>34639</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>90</v>
       </c>
@@ -3590,56 +4667,113 @@
       <c r="D164" s="4">
         <v>36404</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="B165" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D165" s="4">
         <v>36557</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="B166" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D166" s="4">
         <v>36557</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="B167" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D167" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="B168" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D168" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="B169" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D169" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="B170" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D170" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>83</v>
       </c>
@@ -3652,8 +4786,11 @@
       <c r="D171" s="4">
         <v>34639</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>77</v>
       </c>
@@ -3666,8 +4803,11 @@
       <c r="D172" s="4">
         <v>34972</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4820,11 @@
       <c r="D173" s="4">
         <v>34972</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>85</v>
       </c>
@@ -3694,8 +4837,11 @@
       <c r="D174" s="9">
         <v>35734</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>86</v>
       </c>
@@ -3708,8 +4854,11 @@
       <c r="D175" s="4">
         <v>35704</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>87</v>
       </c>
@@ -3722,16 +4871,28 @@
       <c r="D176" s="4">
         <v>36039</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="B177" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D177" s="4">
         <v>36039</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>89</v>
       </c>
@@ -3744,24 +4905,45 @@
       <c r="D178" s="4">
         <v>36404</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B179" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D179" s="4">
         <v>36465</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="B180" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D180" s="4">
         <v>36465</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>318</v>
       </c>
@@ -3774,8 +4956,11 @@
       <c r="D181" s="4">
         <v>33909</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>321</v>
       </c>
@@ -3788,8 +4973,11 @@
       <c r="D182" s="4">
         <v>33140</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>170</v>
       </c>
@@ -3802,8 +4990,11 @@
       <c r="D183" s="4">
         <v>34060</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>179</v>
       </c>
@@ -3816,8 +5007,11 @@
       <c r="D184" s="7">
         <v>36178</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>179</v>
       </c>
@@ -3830,8 +5024,11 @@
       <c r="D185" s="7">
         <v>36178</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>180</v>
       </c>
@@ -3844,8 +5041,11 @@
       <c r="D186" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>182</v>
       </c>
@@ -3858,8 +5058,11 @@
       <c r="D187" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>183</v>
       </c>
@@ -3872,8 +5075,11 @@
       <c r="D188" s="4">
         <v>36465</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>184</v>
       </c>
@@ -3886,8 +5092,11 @@
       <c r="D189" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>185</v>
       </c>
@@ -3900,27 +5109,45 @@
       <c r="D190" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="B191" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D191" s="4">
         <v>36923</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="B192" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C192" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D192" s="5">
         <v>36923</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>171</v>
       </c>
@@ -3933,8 +5160,11 @@
       <c r="D193" s="4">
         <v>33695</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>172</v>
       </c>
@@ -3947,8 +5177,11 @@
       <c r="D194" s="4">
         <v>35217</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>173</v>
       </c>
@@ -3961,8 +5194,11 @@
       <c r="D195" s="4">
         <v>35217</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>174</v>
       </c>
@@ -3975,8 +5211,11 @@
       <c r="D196" s="4">
         <v>35519</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>175</v>
       </c>
@@ -3989,8 +5228,11 @@
       <c r="D197" s="4">
         <v>35519</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>176</v>
       </c>
@@ -4003,8 +5245,11 @@
       <c r="D198" s="9">
         <v>36045</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>176</v>
       </c>
@@ -4017,8 +5262,11 @@
       <c r="D199" s="9">
         <v>36045</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>176</v>
       </c>
@@ -4031,8 +5279,11 @@
       <c r="D200" s="9">
         <v>36045</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>177</v>
       </c>
@@ -4045,8 +5296,11 @@
       <c r="D201" s="9">
         <v>36045</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>177</v>
       </c>
@@ -4059,8 +5313,11 @@
       <c r="D202" s="9">
         <v>36045</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>178</v>
       </c>
@@ -4073,8 +5330,11 @@
       <c r="D203" s="7">
         <v>36178</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>328</v>
       </c>
@@ -4087,8 +5347,11 @@
       <c r="D204" s="4">
         <v>31472</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>225</v>
       </c>
@@ -4101,26 +5364,45 @@
       <c r="D205" s="5">
         <v>32118</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C206" s="4"/>
+      <c r="B206" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="D206" s="4">
         <v>37012</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C207" s="4"/>
+      <c r="B207" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="D207" s="4">
         <v>37012</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>279</v>
       </c>
@@ -4133,8 +5415,11 @@
       <c r="D208" s="10">
         <v>35777</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>280</v>
       </c>
@@ -4147,8 +5432,11 @@
       <c r="D209" s="4">
         <v>36069</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>284</v>
       </c>
@@ -4161,8 +5449,11 @@
       <c r="D210" s="4">
         <v>36069</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>281</v>
       </c>
@@ -4175,35 +5466,62 @@
       <c r="D211" s="4">
         <v>36404</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="C212" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D212" s="4">
         <v>36404</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="B213" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D213" s="4">
         <v>37073</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="B214" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D214" s="4">
         <v>37073</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>274</v>
       </c>
@@ -4216,8 +5534,11 @@
       <c r="D215" s="4">
         <v>32174</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>166</v>
       </c>
@@ -4227,9 +5548,14 @@
       <c r="C216" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D216" s="4"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D216" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E216" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -4242,8 +5568,11 @@
       <c r="D217" s="4">
         <v>35035</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -4256,8 +5585,11 @@
       <c r="D218" s="4">
         <v>35035</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>167</v>
       </c>
@@ -4270,8 +5602,11 @@
       <c r="D219" s="4">
         <v>35462</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>271</v>
       </c>
@@ -4284,38 +5619,62 @@
       <c r="D220" s="4">
         <v>35462</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="B221" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D221" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="B222" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C222" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="B223" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C223" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D223" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>312</v>
       </c>
@@ -4328,8 +5687,11 @@
       <c r="D224" s="4">
         <v>32752</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>326</v>
       </c>
@@ -4342,8 +5704,11 @@
       <c r="D225" s="4">
         <v>32752</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>327</v>
       </c>
@@ -4356,8 +5721,11 @@
       <c r="D226" s="10">
         <v>33899</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>342</v>
       </c>
@@ -4370,8 +5738,11 @@
       <c r="D227" s="7">
         <v>31423</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>347</v>
       </c>
@@ -4384,19 +5755,28 @@
       <c r="D228" s="7">
         <v>31423</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="C229" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D229" s="4">
         <v>36065</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>158</v>
       </c>
@@ -4409,30 +5789,45 @@
       <c r="D230" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E230" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="B231" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C231" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="B232" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C232" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>150</v>
       </c>
@@ -4445,8 +5840,11 @@
       <c r="D233" s="4">
         <v>36065</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>151</v>
       </c>
@@ -4459,8 +5857,11 @@
       <c r="D234" s="7">
         <v>36192</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>152</v>
       </c>
@@ -4473,8 +5874,11 @@
       <c r="D235" s="4">
         <v>36192</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>153</v>
       </c>
@@ -4487,8 +5891,11 @@
       <c r="D236" s="4">
         <v>36443</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>153</v>
       </c>
@@ -4501,8 +5908,11 @@
       <c r="D237" s="4">
         <v>36443</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>154</v>
       </c>
@@ -4515,8 +5925,11 @@
       <c r="D238" s="4">
         <v>36443</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>154</v>
       </c>
@@ -4529,24 +5942,45 @@
       <c r="D239" s="4">
         <v>36443</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="B240" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D240" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="B241" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D241" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>329</v>
       </c>
@@ -4559,8 +5993,11 @@
       <c r="D242" s="4">
         <v>32905</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>336</v>
       </c>
@@ -4570,8 +6007,14 @@
       <c r="C243" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D243" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E243" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>331</v>
       </c>
@@ -4584,8 +6027,11 @@
       <c r="D244" s="4">
         <v>32478</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>314</v>
       </c>
@@ -4598,8 +6044,11 @@
       <c r="D245" s="4">
         <v>31321</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>299</v>
       </c>
@@ -4612,8 +6061,11 @@
       <c r="D246" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E246" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>309</v>
       </c>
@@ -4626,24 +6078,45 @@
       <c r="D247" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E247" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="B248" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D248" s="5">
         <v>35339</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E248" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="B249" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D249" s="5">
         <v>35339</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>297</v>
       </c>
@@ -4656,8 +6129,11 @@
       <c r="D250" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>303</v>
       </c>
@@ -4670,8 +6146,11 @@
       <c r="D251" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>310</v>
       </c>
@@ -4684,8 +6163,11 @@
       <c r="D252" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E252" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>305</v>
       </c>
@@ -4698,8 +6180,11 @@
       <c r="D253" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>311</v>
       </c>
@@ -4712,8 +6197,11 @@
       <c r="D254" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>307</v>
       </c>
@@ -4726,8 +6214,11 @@
       <c r="D255" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E255" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>308</v>
       </c>
@@ -4740,8 +6231,11 @@
       <c r="D256" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E256" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>288</v>
       </c>
@@ -4754,8 +6248,11 @@
       <c r="D257" s="4">
         <v>33878</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E257" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>136</v>
       </c>
@@ -4768,8 +6265,11 @@
       <c r="D258" s="4">
         <v>34274</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>100</v>
       </c>
@@ -4782,8 +6282,11 @@
       <c r="D259" s="4">
         <v>34759</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E259" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>101</v>
       </c>
@@ -4796,8 +6299,11 @@
       <c r="D260" s="4">
         <v>34992</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E260" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>102</v>
       </c>
@@ -4810,8 +6316,11 @@
       <c r="D261" s="4">
         <v>34992</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>103</v>
       </c>
@@ -4824,8 +6333,11 @@
       <c r="D262" s="4">
         <v>35342</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>56</v>
       </c>
@@ -4838,8 +6350,11 @@
       <c r="D263" s="4">
         <v>35342</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E263" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>104</v>
       </c>
@@ -4852,8 +6367,11 @@
       <c r="D264" s="4">
         <v>35499</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>105</v>
       </c>
@@ -4866,8 +6384,11 @@
       <c r="D265" s="4">
         <v>35499</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E265" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>106</v>
       </c>
@@ -4880,8 +6401,11 @@
       <c r="D266" s="4">
         <v>35713</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E266" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>107</v>
       </c>
@@ -4894,8 +6418,11 @@
       <c r="D267" s="9">
         <v>35844</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E267" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>108</v>
       </c>
@@ -4908,8 +6435,11 @@
       <c r="D268" s="4">
         <v>36089</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E268" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>109</v>
       </c>
@@ -4922,8 +6452,11 @@
       <c r="D269" s="4">
         <v>36089</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E269" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>110</v>
       </c>
@@ -4936,8 +6469,11 @@
       <c r="D270" s="4">
         <v>36130</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E270" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>111</v>
       </c>
@@ -4950,8 +6486,11 @@
       <c r="D271" s="4">
         <v>36130</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E271" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>112</v>
       </c>
@@ -4964,8 +6503,11 @@
       <c r="D272" s="4">
         <v>36451</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E272" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>113</v>
       </c>
@@ -4978,19 +6520,28 @@
       <c r="D273" s="4">
         <v>36434</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E273" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="B274" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D274" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E274" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>55</v>
       </c>
@@ -5003,65 +6554,113 @@
       <c r="D275" s="4">
         <v>33420</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E275" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="B276" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C276" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D276" s="4">
         <v>36800</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E276" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="B277" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C277" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D277" s="4">
         <v>36861</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E277" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="B278" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C278" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D278" s="4">
         <v>36861</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E278" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="B279" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D279" s="4">
         <v>37135</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E279" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="B280" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D280" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E280" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="B281" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D281" s="4">
         <v>37165</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E281" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>122</v>
       </c>
@@ -5074,8 +6673,11 @@
       <c r="D282" s="4">
         <v>34045</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E282" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>99</v>
       </c>
@@ -5088,8 +6690,11 @@
       <c r="D283" s="4">
         <v>34045</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E283" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>343</v>
       </c>
@@ -5099,8 +6704,14 @@
       <c r="C284" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D284" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E284" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>37</v>
       </c>
@@ -5113,8 +6724,11 @@
       <c r="D285" s="4">
         <v>33298</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E285" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>344</v>
       </c>
@@ -5124,8 +6738,14 @@
       <c r="C286" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D286" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E286" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>344</v>
       </c>
@@ -5135,8 +6755,14 @@
       <c r="C287" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D287" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E287" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>39</v>
       </c>
@@ -5149,8 +6775,11 @@
       <c r="D288" s="4">
         <v>34243</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E288" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>45</v>
       </c>
@@ -5160,12 +6789,14 @@
       <c r="C289" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D289" s="4"/>
-      <c r="E289" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D289" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E289" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>46</v>
       </c>
@@ -5178,8 +6809,11 @@
       <c r="D290" s="9">
         <v>35823</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E290" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>47</v>
       </c>
@@ -5192,8 +6826,11 @@
       <c r="D291" s="3">
         <v>36066</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E291" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>48</v>
       </c>
@@ -5206,8 +6843,11 @@
       <c r="D292" s="3">
         <v>36066</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E292" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>49</v>
       </c>
@@ -5220,8 +6860,11 @@
       <c r="D293" s="4">
         <v>36404</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E293" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>50</v>
       </c>
@@ -5234,8 +6877,11 @@
       <c r="D294" s="4">
         <v>36557</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E294" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>51</v>
       </c>
@@ -5248,32 +6894,62 @@
       <c r="D295" s="4">
         <v>36557</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E295" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B296" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D296" s="4">
         <v>36861</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E296" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B297" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D297" s="4">
         <v>36861</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E297" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B298" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D298" s="4">
         <v>37196</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E298" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>40</v>
       </c>
@@ -5286,8 +6962,11 @@
       <c r="D299" s="4">
         <v>34243</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E299" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>41</v>
       </c>
@@ -5300,8 +6979,11 @@
       <c r="D300" s="4">
         <v>34608</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E300" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>42</v>
       </c>
@@ -5314,8 +6996,11 @@
       <c r="D301" s="4">
         <v>34978</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E301" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>43</v>
       </c>
@@ -5328,8 +7013,11 @@
       <c r="D302" s="4">
         <v>35348</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E302" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>44</v>
       </c>
@@ -5342,8 +7030,11 @@
       <c r="D303" s="4">
         <v>35690</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E303" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>286</v>
       </c>
@@ -5356,8 +7047,11 @@
       <c r="D304" s="4">
         <v>33147</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E304" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>259</v>
       </c>
@@ -5370,8 +7064,11 @@
       <c r="D305" s="4">
         <v>33270</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E305" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>80</v>
       </c>
@@ -5384,8 +7081,11 @@
       <c r="D306" s="4">
         <v>33543</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E306" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>313</v>
       </c>
@@ -5398,8 +7098,11 @@
       <c r="D307" s="4">
         <v>32203</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E307" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>316</v>
       </c>
@@ -5412,8 +7115,11 @@
       <c r="D308" s="4">
         <v>32568</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E308" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>319</v>
       </c>
@@ -5426,8 +7132,11 @@
       <c r="D309" s="4">
         <v>32786</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E309" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>289</v>
       </c>
@@ -5440,8 +7149,11 @@
       <c r="D310" s="4">
         <v>35004</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E310" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>290</v>
       </c>
@@ -5454,8 +7166,11 @@
       <c r="D311" s="4">
         <v>35004</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E311" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>291</v>
       </c>
@@ -5468,8 +7183,11 @@
       <c r="D312" s="4">
         <v>35612</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E312" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>292</v>
       </c>
@@ -5482,8 +7200,11 @@
       <c r="D313" s="4">
         <v>35612</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E313" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>293</v>
       </c>
@@ -5496,8 +7217,11 @@
       <c r="D314" s="4">
         <v>35612</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E314" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>294</v>
       </c>
@@ -5510,8 +7234,11 @@
       <c r="D315" s="4">
         <v>35612</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E315" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>346</v>
       </c>
@@ -5523,13 +7250,20 @@
       </c>
       <c r="D316" s="2">
         <v>31093</v>
+      </c>
+      <c r="E316" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D316">
     <sortCondition ref="A1:A316"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E7 E2" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/NewlyCreatedData/Checks/BirthDates.xlsx
+++ b/data/NewlyCreatedData/Checks/BirthDates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\monas\Git\repo\glt\GoldenLionTamarins\data\NewlyCreatedData\Checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3146DBF7-37B8-470B-8E99-7490B70A3A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F0C7E2-01FA-435A-98B5-988795709810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="488">
   <si>
     <t>Tatoo</t>
   </si>
@@ -1205,9 +1205,6 @@
     <t>01/04/95</t>
   </si>
   <si>
-    <t>00/01/00</t>
-  </si>
-  <si>
     <t>06/04/91</t>
   </si>
   <si>
@@ -1502,7 +1499,7 @@
     <t>01/07/97</t>
   </si>
   <si>
-    <t>BirthDMY</t>
+    <t>Birth_VR</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1868,7 @@
   <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,7 +1894,7 @@
         <v>352</v>
       </c>
       <c r="E1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2764,7 +2761,7 @@
         <v>353</v>
       </c>
       <c r="E52" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2781,7 +2778,7 @@
         <v>33334</v>
       </c>
       <c r="E53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,7 +2795,7 @@
         <v>33482</v>
       </c>
       <c r="E54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2832,7 +2829,7 @@
         <v>35400</v>
       </c>
       <c r="E56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2849,7 +2846,7 @@
         <v>35400</v>
       </c>
       <c r="E57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2883,7 +2880,7 @@
         <v>36069</v>
       </c>
       <c r="E59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2900,7 +2897,7 @@
         <v>36069</v>
       </c>
       <c r="E60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2917,7 +2914,7 @@
         <v>36434</v>
       </c>
       <c r="E61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2934,7 +2931,7 @@
         <v>36434</v>
       </c>
       <c r="E62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,7 +2948,7 @@
         <v>33756</v>
       </c>
       <c r="E63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2968,7 +2965,7 @@
         <v>31625</v>
       </c>
       <c r="E64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2985,7 +2982,7 @@
         <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3002,7 +2999,7 @@
         <v>36708</v>
       </c>
       <c r="E66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,7 +3016,7 @@
         <v>34608</v>
       </c>
       <c r="E67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,7 +3033,7 @@
         <v>34608</v>
       </c>
       <c r="E68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3053,7 +3050,7 @@
         <v>35004</v>
       </c>
       <c r="E69" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,7 +3067,7 @@
         <v>35004</v>
       </c>
       <c r="E70" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,7 +3084,7 @@
         <v>35309</v>
       </c>
       <c r="E71" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3104,7 +3101,7 @@
         <v>35309</v>
       </c>
       <c r="E72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,7 +3118,7 @@
         <v>35674</v>
       </c>
       <c r="E73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3138,7 +3135,7 @@
         <v>35674</v>
       </c>
       <c r="E74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3155,7 +3152,7 @@
         <v>36130</v>
       </c>
       <c r="E75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3172,7 +3169,7 @@
         <v>36130</v>
       </c>
       <c r="E76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3189,7 +3186,7 @@
         <v>36434</v>
       </c>
       <c r="E77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3206,7 +3203,7 @@
         <v>36434</v>
       </c>
       <c r="E78" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,7 +3254,7 @@
         <v>37165</v>
       </c>
       <c r="E81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,7 +3271,7 @@
         <v>37165</v>
       </c>
       <c r="E82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3291,7 +3288,7 @@
         <v>33270</v>
       </c>
       <c r="E83" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3308,7 +3305,7 @@
         <v>33329</v>
       </c>
       <c r="E84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,7 +3322,7 @@
         <v>33329</v>
       </c>
       <c r="E85" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3342,7 +3339,7 @@
         <v>36272</v>
       </c>
       <c r="E86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,7 +3407,7 @@
         <v>37165</v>
       </c>
       <c r="E90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,7 +3424,7 @@
         <v>37165</v>
       </c>
       <c r="E91" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3461,7 +3458,7 @@
         <v>32721</v>
       </c>
       <c r="E93" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,7 +3509,7 @@
         <v>36495</v>
       </c>
       <c r="E96" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,7 +3526,7 @@
         <v>36495</v>
       </c>
       <c r="E97" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,7 +3560,7 @@
         <v>31822</v>
       </c>
       <c r="E99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,7 +3577,7 @@
         <v>33520</v>
       </c>
       <c r="E100" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,7 +3594,7 @@
         <v>34020</v>
       </c>
       <c r="E101" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,7 +3611,7 @@
         <v>34020</v>
       </c>
       <c r="E102" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,7 +3628,7 @@
         <v>32478</v>
       </c>
       <c r="E103" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,7 +3645,7 @@
         <v>33158</v>
       </c>
       <c r="E104" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,7 +3662,7 @@
         <v>33158</v>
       </c>
       <c r="E105" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,7 +3679,7 @@
         <v>33520</v>
       </c>
       <c r="E106" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3699,7 +3696,7 @@
         <v>33257</v>
       </c>
       <c r="E107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,7 +3713,7 @@
         <v>34608</v>
       </c>
       <c r="E108" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,7 +3798,7 @@
         <v>234</v>
       </c>
       <c r="E113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,7 +3815,7 @@
         <v>234</v>
       </c>
       <c r="E114" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3886,7 +3883,7 @@
         <v>36100</v>
       </c>
       <c r="E118" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3903,7 +3900,7 @@
         <v>36100</v>
       </c>
       <c r="E119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,7 +3951,7 @@
         <v>36708</v>
       </c>
       <c r="E122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,7 +4002,7 @@
         <v>33628</v>
       </c>
       <c r="E125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,7 +4019,7 @@
         <v>34001</v>
       </c>
       <c r="E126" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4039,7 +4036,7 @@
         <v>34608</v>
       </c>
       <c r="E127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,7 +4053,7 @@
         <v>34608</v>
       </c>
       <c r="E128" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,7 +4070,7 @@
         <v>34881</v>
       </c>
       <c r="E129" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4107,7 +4104,7 @@
         <v>36708</v>
       </c>
       <c r="E131" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4124,7 +4121,7 @@
         <v>36708</v>
       </c>
       <c r="E132" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,7 +4138,7 @@
         <v>34881</v>
       </c>
       <c r="E133" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4158,7 +4155,7 @@
         <v>34881</v>
       </c>
       <c r="E134" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4175,7 +4172,7 @@
         <v>34881</v>
       </c>
       <c r="E135" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4192,7 +4189,7 @@
         <v>35278</v>
       </c>
       <c r="E136" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4209,7 +4206,7 @@
         <v>35643</v>
       </c>
       <c r="E137" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4226,7 +4223,7 @@
         <v>35643</v>
       </c>
       <c r="E138" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,7 +4240,7 @@
         <v>35643</v>
       </c>
       <c r="E139" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,7 +4342,7 @@
         <v>35348</v>
       </c>
       <c r="E145" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,7 +4359,7 @@
         <v>35348</v>
       </c>
       <c r="E146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4379,7 +4376,7 @@
         <v>35711</v>
       </c>
       <c r="E147" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4396,7 +4393,7 @@
         <v>35711</v>
       </c>
       <c r="E148" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,7 +4410,7 @@
         <v>36065</v>
       </c>
       <c r="E149" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,7 +4427,7 @@
         <v>36065</v>
       </c>
       <c r="E150" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,7 +4444,7 @@
         <v>36413</v>
       </c>
       <c r="E151" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4464,7 +4461,7 @@
         <v>36413</v>
       </c>
       <c r="E152" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4549,7 +4546,7 @@
         <v>37165</v>
       </c>
       <c r="E157" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4566,7 +4563,7 @@
         <v>37165</v>
       </c>
       <c r="E158" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4583,7 +4580,7 @@
         <v>34339</v>
       </c>
       <c r="E159" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4600,7 +4597,7 @@
         <v>34339</v>
       </c>
       <c r="E160" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4617,7 +4614,7 @@
         <v>34620</v>
       </c>
       <c r="E161" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,7 +4665,7 @@
         <v>36404</v>
       </c>
       <c r="E164" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,7 +4682,7 @@
         <v>36557</v>
       </c>
       <c r="E165" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4702,7 +4699,7 @@
         <v>36557</v>
       </c>
       <c r="E166" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4753,7 +4750,7 @@
         <v>37165</v>
       </c>
       <c r="E169" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4770,7 +4767,7 @@
         <v>37165</v>
       </c>
       <c r="E170" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4804,7 +4801,7 @@
         <v>34972</v>
       </c>
       <c r="E172" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4821,7 +4818,7 @@
         <v>34972</v>
       </c>
       <c r="E173" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4838,7 +4835,7 @@
         <v>35734</v>
       </c>
       <c r="E174" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,7 +4852,7 @@
         <v>35704</v>
       </c>
       <c r="E175" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4872,7 +4869,7 @@
         <v>36039</v>
       </c>
       <c r="E176" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4889,7 +4886,7 @@
         <v>36039</v>
       </c>
       <c r="E177" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4906,7 +4903,7 @@
         <v>36404</v>
       </c>
       <c r="E178" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,7 +4954,7 @@
         <v>33909</v>
       </c>
       <c r="E181" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4974,7 +4971,7 @@
         <v>33140</v>
       </c>
       <c r="E182" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5008,7 +5005,7 @@
         <v>36178</v>
       </c>
       <c r="E184" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5025,7 +5022,7 @@
         <v>36178</v>
       </c>
       <c r="E185" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5042,7 +5039,7 @@
         <v>181</v>
       </c>
       <c r="E186" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5059,7 +5056,7 @@
         <v>181</v>
       </c>
       <c r="E187" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5127,7 +5124,7 @@
         <v>36923</v>
       </c>
       <c r="E191" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5144,7 +5141,7 @@
         <v>36923</v>
       </c>
       <c r="E192" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,7 +5158,7 @@
         <v>33695</v>
       </c>
       <c r="E193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5178,7 +5175,7 @@
         <v>35217</v>
       </c>
       <c r="E194" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5195,7 +5192,7 @@
         <v>35217</v>
       </c>
       <c r="E195" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5212,7 +5209,7 @@
         <v>35519</v>
       </c>
       <c r="E196" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5229,7 +5226,7 @@
         <v>35519</v>
       </c>
       <c r="E197" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5246,7 +5243,7 @@
         <v>36045</v>
       </c>
       <c r="E198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5263,7 +5260,7 @@
         <v>36045</v>
       </c>
       <c r="E199" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5280,7 +5277,7 @@
         <v>36045</v>
       </c>
       <c r="E200" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5297,7 +5294,7 @@
         <v>36045</v>
       </c>
       <c r="E201" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5314,7 +5311,7 @@
         <v>36045</v>
       </c>
       <c r="E202" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5331,7 +5328,7 @@
         <v>36178</v>
       </c>
       <c r="E203" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5348,7 +5345,7 @@
         <v>31472</v>
       </c>
       <c r="E204" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,7 +5362,7 @@
         <v>32118</v>
       </c>
       <c r="E205" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5382,7 +5379,7 @@
         <v>37012</v>
       </c>
       <c r="E206" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5399,7 +5396,7 @@
         <v>37012</v>
       </c>
       <c r="E207" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5416,7 +5413,7 @@
         <v>35777</v>
       </c>
       <c r="E208" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5433,7 +5430,7 @@
         <v>36069</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5450,7 +5447,7 @@
         <v>36069</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5467,7 +5464,7 @@
         <v>36404</v>
       </c>
       <c r="E211" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5484,7 +5481,7 @@
         <v>36404</v>
       </c>
       <c r="E212" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5535,7 +5532,7 @@
         <v>32174</v>
       </c>
       <c r="E215" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5569,7 +5566,7 @@
         <v>35035</v>
       </c>
       <c r="E217" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5586,7 +5583,7 @@
         <v>35035</v>
       </c>
       <c r="E218" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5603,7 +5600,7 @@
         <v>35462</v>
       </c>
       <c r="E219" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5620,7 +5617,7 @@
         <v>35462</v>
       </c>
       <c r="E220" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5654,7 +5651,7 @@
         <v>37165</v>
       </c>
       <c r="E222" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5671,7 +5668,7 @@
         <v>37165</v>
       </c>
       <c r="E223" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5688,7 +5685,7 @@
         <v>32752</v>
       </c>
       <c r="E224" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5705,7 +5702,7 @@
         <v>32752</v>
       </c>
       <c r="E225" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5722,7 +5719,7 @@
         <v>33899</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5739,7 +5736,7 @@
         <v>31423</v>
       </c>
       <c r="E227" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5756,7 +5753,7 @@
         <v>31423</v>
       </c>
       <c r="E228" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5773,7 +5770,7 @@
         <v>36065</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5790,7 +5787,7 @@
         <v>156</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5841,7 +5838,7 @@
         <v>36065</v>
       </c>
       <c r="E233" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5858,7 +5855,7 @@
         <v>36192</v>
       </c>
       <c r="E234" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5875,7 +5872,7 @@
         <v>36192</v>
       </c>
       <c r="E235" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5892,7 +5889,7 @@
         <v>36443</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,7 +5906,7 @@
         <v>36443</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5926,7 +5923,7 @@
         <v>36443</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5943,7 +5940,7 @@
         <v>36443</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5960,7 +5957,7 @@
         <v>156</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5977,7 +5974,7 @@
         <v>156</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6028,7 +6025,7 @@
         <v>32478</v>
       </c>
       <c r="E244" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6045,7 +6042,7 @@
         <v>31321</v>
       </c>
       <c r="E245" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6062,7 +6059,7 @@
         <v>300</v>
       </c>
       <c r="E246" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6079,7 +6076,7 @@
         <v>300</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6130,7 +6127,7 @@
         <v>298</v>
       </c>
       <c r="E250" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6147,7 +6144,7 @@
         <v>304</v>
       </c>
       <c r="E251" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6164,7 +6161,7 @@
         <v>304</v>
       </c>
       <c r="E252" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6181,7 +6178,7 @@
         <v>306</v>
       </c>
       <c r="E253" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6198,7 +6195,7 @@
         <v>306</v>
       </c>
       <c r="E254" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6215,7 +6212,7 @@
         <v>306</v>
       </c>
       <c r="E255" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6232,7 +6229,7 @@
         <v>306</v>
       </c>
       <c r="E256" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6249,7 +6246,7 @@
         <v>33878</v>
       </c>
       <c r="E257" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6266,7 +6263,7 @@
         <v>34274</v>
       </c>
       <c r="E258" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6283,7 +6280,7 @@
         <v>34759</v>
       </c>
       <c r="E259" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6300,7 +6297,7 @@
         <v>34992</v>
       </c>
       <c r="E260" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6317,7 +6314,7 @@
         <v>34992</v>
       </c>
       <c r="E261" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6334,7 +6331,7 @@
         <v>35342</v>
       </c>
       <c r="E262" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6351,7 +6348,7 @@
         <v>35342</v>
       </c>
       <c r="E263" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6368,7 +6365,7 @@
         <v>35499</v>
       </c>
       <c r="E264" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6385,7 +6382,7 @@
         <v>35499</v>
       </c>
       <c r="E265" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6402,7 +6399,7 @@
         <v>35713</v>
       </c>
       <c r="E266" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6419,7 +6416,7 @@
         <v>35844</v>
       </c>
       <c r="E267" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6436,7 +6433,7 @@
         <v>36089</v>
       </c>
       <c r="E268" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6453,7 +6450,7 @@
         <v>36089</v>
       </c>
       <c r="E269" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6470,7 +6467,7 @@
         <v>36130</v>
       </c>
       <c r="E270" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6487,7 +6484,7 @@
         <v>36130</v>
       </c>
       <c r="E271" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6504,7 +6501,7 @@
         <v>36451</v>
       </c>
       <c r="E272" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6521,7 +6518,7 @@
         <v>36434</v>
       </c>
       <c r="E273" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6555,7 +6552,7 @@
         <v>33420</v>
       </c>
       <c r="E275" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6589,7 +6586,7 @@
         <v>36861</v>
       </c>
       <c r="E277" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6606,7 +6603,7 @@
         <v>36861</v>
       </c>
       <c r="E278" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6623,7 +6620,7 @@
         <v>37135</v>
       </c>
       <c r="E279" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6640,7 +6637,7 @@
         <v>37165</v>
       </c>
       <c r="E280" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6657,7 +6654,7 @@
         <v>37165</v>
       </c>
       <c r="E281" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6674,7 +6671,7 @@
         <v>34045</v>
       </c>
       <c r="E282" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6691,7 +6688,7 @@
         <v>34045</v>
       </c>
       <c r="E283" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6725,7 +6722,7 @@
         <v>33298</v>
       </c>
       <c r="E285" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6776,7 +6773,7 @@
         <v>34243</v>
       </c>
       <c r="E288" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -6810,7 +6807,7 @@
         <v>35823</v>
       </c>
       <c r="E290" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -6827,7 +6824,7 @@
         <v>36066</v>
       </c>
       <c r="E291" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6844,7 +6841,7 @@
         <v>36066</v>
       </c>
       <c r="E292" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -6861,7 +6858,7 @@
         <v>36404</v>
       </c>
       <c r="E293" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -6878,7 +6875,7 @@
         <v>36557</v>
       </c>
       <c r="E294" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -6895,7 +6892,7 @@
         <v>36557</v>
       </c>
       <c r="E295" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -6912,7 +6909,7 @@
         <v>36861</v>
       </c>
       <c r="E296" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -6929,7 +6926,7 @@
         <v>36861</v>
       </c>
       <c r="E297" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6946,7 +6943,7 @@
         <v>37196</v>
       </c>
       <c r="E298" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6963,7 +6960,7 @@
         <v>34243</v>
       </c>
       <c r="E299" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6980,7 +6977,7 @@
         <v>34608</v>
       </c>
       <c r="E300" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -6997,7 +6994,7 @@
         <v>34978</v>
       </c>
       <c r="E301" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7014,7 +7011,7 @@
         <v>35348</v>
       </c>
       <c r="E302" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7031,7 +7028,7 @@
         <v>35690</v>
       </c>
       <c r="E303" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7048,7 +7045,7 @@
         <v>33147</v>
       </c>
       <c r="E304" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7065,7 +7062,7 @@
         <v>33270</v>
       </c>
       <c r="E305" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7082,7 +7079,7 @@
         <v>33543</v>
       </c>
       <c r="E306" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7099,7 +7096,7 @@
         <v>32203</v>
       </c>
       <c r="E307" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7116,7 +7113,7 @@
         <v>32568</v>
       </c>
       <c r="E308" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7133,7 +7130,7 @@
         <v>32786</v>
       </c>
       <c r="E309" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7150,7 +7147,7 @@
         <v>35004</v>
       </c>
       <c r="E310" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7167,7 +7164,7 @@
         <v>35004</v>
       </c>
       <c r="E311" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7184,7 +7181,7 @@
         <v>35612</v>
       </c>
       <c r="E312" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7201,7 +7198,7 @@
         <v>35612</v>
       </c>
       <c r="E313" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7218,7 +7215,7 @@
         <v>35612</v>
       </c>
       <c r="E314" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7235,7 +7232,7 @@
         <v>35612</v>
       </c>
       <c r="E315" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/NewlyCreatedData/Checks/BirthDates.xlsx
+++ b/data/NewlyCreatedData/Checks/BirthDates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\monas\Git\repo\glt\GoldenLionTamarins\data\NewlyCreatedData\Checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3146DBF7-37B8-470B-8E99-7490B70A3A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A8EE5-1981-457C-9F62-CF380566361D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="488">
   <si>
     <t>Tatoo</t>
   </si>
@@ -1205,9 +1205,6 @@
     <t>01/04/95</t>
   </si>
   <si>
-    <t>00/01/00</t>
-  </si>
-  <si>
     <t>06/04/91</t>
   </si>
   <si>
@@ -1502,7 +1499,7 @@
     <t>01/07/97</t>
   </si>
   <si>
-    <t>BirthDMY</t>
+    <t>Birth_VR</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1868,7 @@
   <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,7 +1894,7 @@
         <v>352</v>
       </c>
       <c r="E1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2764,7 +2761,7 @@
         <v>353</v>
       </c>
       <c r="E52" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2781,7 +2778,7 @@
         <v>33334</v>
       </c>
       <c r="E53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,7 +2795,7 @@
         <v>33482</v>
       </c>
       <c r="E54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2832,7 +2829,7 @@
         <v>35400</v>
       </c>
       <c r="E56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2849,7 +2846,7 @@
         <v>35400</v>
       </c>
       <c r="E57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2883,7 +2880,7 @@
         <v>36069</v>
       </c>
       <c r="E59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2900,7 +2897,7 @@
         <v>36069</v>
       </c>
       <c r="E60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2917,7 +2914,7 @@
         <v>36434</v>
       </c>
       <c r="E61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2934,7 +2931,7 @@
         <v>36434</v>
       </c>
       <c r="E62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,7 +2948,7 @@
         <v>33756</v>
       </c>
       <c r="E63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2968,7 +2965,7 @@
         <v>31625</v>
       </c>
       <c r="E64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2985,7 +2982,7 @@
         <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3002,7 +2999,7 @@
         <v>36708</v>
       </c>
       <c r="E66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,7 +3016,7 @@
         <v>34608</v>
       </c>
       <c r="E67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,7 +3033,7 @@
         <v>34608</v>
       </c>
       <c r="E68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3053,7 +3050,7 @@
         <v>35004</v>
       </c>
       <c r="E69" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,7 +3067,7 @@
         <v>35004</v>
       </c>
       <c r="E70" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,7 +3084,7 @@
         <v>35309</v>
       </c>
       <c r="E71" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3104,7 +3101,7 @@
         <v>35309</v>
       </c>
       <c r="E72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,7 +3118,7 @@
         <v>35674</v>
       </c>
       <c r="E73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3138,7 +3135,7 @@
         <v>35674</v>
       </c>
       <c r="E74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3155,7 +3152,7 @@
         <v>36130</v>
       </c>
       <c r="E75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3172,7 +3169,7 @@
         <v>36130</v>
       </c>
       <c r="E76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3189,7 +3186,7 @@
         <v>36434</v>
       </c>
       <c r="E77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3206,7 +3203,7 @@
         <v>36434</v>
       </c>
       <c r="E78" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,7 +3254,7 @@
         <v>37165</v>
       </c>
       <c r="E81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,7 +3271,7 @@
         <v>37165</v>
       </c>
       <c r="E82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3291,7 +3288,7 @@
         <v>33270</v>
       </c>
       <c r="E83" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3308,7 +3305,7 @@
         <v>33329</v>
       </c>
       <c r="E84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,7 +3322,7 @@
         <v>33329</v>
       </c>
       <c r="E85" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3342,7 +3339,7 @@
         <v>36272</v>
       </c>
       <c r="E86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,7 +3407,7 @@
         <v>37165</v>
       </c>
       <c r="E90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,7 +3424,7 @@
         <v>37165</v>
       </c>
       <c r="E91" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3461,7 +3458,7 @@
         <v>32721</v>
       </c>
       <c r="E93" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,7 +3509,7 @@
         <v>36495</v>
       </c>
       <c r="E96" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,7 +3526,7 @@
         <v>36495</v>
       </c>
       <c r="E97" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,7 +3560,7 @@
         <v>31822</v>
       </c>
       <c r="E99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,7 +3577,7 @@
         <v>33520</v>
       </c>
       <c r="E100" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,7 +3594,7 @@
         <v>34020</v>
       </c>
       <c r="E101" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,7 +3611,7 @@
         <v>34020</v>
       </c>
       <c r="E102" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,7 +3628,7 @@
         <v>32478</v>
       </c>
       <c r="E103" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,7 +3645,7 @@
         <v>33158</v>
       </c>
       <c r="E104" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,7 +3662,7 @@
         <v>33158</v>
       </c>
       <c r="E105" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,7 +3679,7 @@
         <v>33520</v>
       </c>
       <c r="E106" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3699,7 +3696,7 @@
         <v>33257</v>
       </c>
       <c r="E107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,7 +3713,7 @@
         <v>34608</v>
       </c>
       <c r="E108" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,7 +3798,7 @@
         <v>234</v>
       </c>
       <c r="E113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,7 +3815,7 @@
         <v>234</v>
       </c>
       <c r="E114" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3886,7 +3883,7 @@
         <v>36100</v>
       </c>
       <c r="E118" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3903,7 +3900,7 @@
         <v>36100</v>
       </c>
       <c r="E119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,7 +3951,7 @@
         <v>36708</v>
       </c>
       <c r="E122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,7 +4002,7 @@
         <v>33628</v>
       </c>
       <c r="E125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,7 +4019,7 @@
         <v>34001</v>
       </c>
       <c r="E126" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4039,7 +4036,7 @@
         <v>34608</v>
       </c>
       <c r="E127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,7 +4053,7 @@
         <v>34608</v>
       </c>
       <c r="E128" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,7 +4070,7 @@
         <v>34881</v>
       </c>
       <c r="E129" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4107,7 +4104,7 @@
         <v>36708</v>
       </c>
       <c r="E131" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4124,7 +4121,7 @@
         <v>36708</v>
       </c>
       <c r="E132" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,7 +4138,7 @@
         <v>34881</v>
       </c>
       <c r="E133" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4158,7 +4155,7 @@
         <v>34881</v>
       </c>
       <c r="E134" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4175,7 +4172,7 @@
         <v>34881</v>
       </c>
       <c r="E135" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4192,7 +4189,7 @@
         <v>35278</v>
       </c>
       <c r="E136" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4209,7 +4206,7 @@
         <v>35643</v>
       </c>
       <c r="E137" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4226,7 +4223,7 @@
         <v>35643</v>
       </c>
       <c r="E138" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,7 +4240,7 @@
         <v>35643</v>
       </c>
       <c r="E139" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,7 +4342,7 @@
         <v>35348</v>
       </c>
       <c r="E145" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,7 +4359,7 @@
         <v>35348</v>
       </c>
       <c r="E146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4379,7 +4376,7 @@
         <v>35711</v>
       </c>
       <c r="E147" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4396,7 +4393,7 @@
         <v>35711</v>
       </c>
       <c r="E148" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,7 +4410,7 @@
         <v>36065</v>
       </c>
       <c r="E149" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,7 +4427,7 @@
         <v>36065</v>
       </c>
       <c r="E150" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,7 +4444,7 @@
         <v>36413</v>
       </c>
       <c r="E151" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4464,7 +4461,7 @@
         <v>36413</v>
       </c>
       <c r="E152" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4549,7 +4546,7 @@
         <v>37165</v>
       </c>
       <c r="E157" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4566,7 +4563,7 @@
         <v>37165</v>
       </c>
       <c r="E158" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4583,7 +4580,7 @@
         <v>34339</v>
       </c>
       <c r="E159" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4600,7 +4597,7 @@
         <v>34339</v>
       </c>
       <c r="E160" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4617,7 +4614,7 @@
         <v>34620</v>
       </c>
       <c r="E161" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,7 +4665,7 @@
         <v>36404</v>
       </c>
       <c r="E164" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,7 +4682,7 @@
         <v>36557</v>
       </c>
       <c r="E165" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4702,7 +4699,7 @@
         <v>36557</v>
       </c>
       <c r="E166" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4753,7 +4750,7 @@
         <v>37165</v>
       </c>
       <c r="E169" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4770,7 +4767,7 @@
         <v>37165</v>
       </c>
       <c r="E170" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4804,7 +4801,7 @@
         <v>34972</v>
       </c>
       <c r="E172" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4821,7 +4818,7 @@
         <v>34972</v>
       </c>
       <c r="E173" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4838,7 +4835,7 @@
         <v>35734</v>
       </c>
       <c r="E174" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,7 +4852,7 @@
         <v>35704</v>
       </c>
       <c r="E175" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4872,7 +4869,7 @@
         <v>36039</v>
       </c>
       <c r="E176" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4889,7 +4886,7 @@
         <v>36039</v>
       </c>
       <c r="E177" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4906,7 +4903,7 @@
         <v>36404</v>
       </c>
       <c r="E178" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,7 +4954,7 @@
         <v>33909</v>
       </c>
       <c r="E181" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4974,7 +4971,7 @@
         <v>33140</v>
       </c>
       <c r="E182" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5008,7 +5005,7 @@
         <v>36178</v>
       </c>
       <c r="E184" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5025,7 +5022,7 @@
         <v>36178</v>
       </c>
       <c r="E185" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5042,7 +5039,7 @@
         <v>181</v>
       </c>
       <c r="E186" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5059,7 +5056,7 @@
         <v>181</v>
       </c>
       <c r="E187" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5127,7 +5124,7 @@
         <v>36923</v>
       </c>
       <c r="E191" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5144,7 +5141,7 @@
         <v>36923</v>
       </c>
       <c r="E192" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,7 +5158,7 @@
         <v>33695</v>
       </c>
       <c r="E193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5178,7 +5175,7 @@
         <v>35217</v>
       </c>
       <c r="E194" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5195,7 +5192,7 @@
         <v>35217</v>
       </c>
       <c r="E195" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5212,7 +5209,7 @@
         <v>35519</v>
       </c>
       <c r="E196" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5229,7 +5226,7 @@
         <v>35519</v>
       </c>
       <c r="E197" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5246,7 +5243,7 @@
         <v>36045</v>
       </c>
       <c r="E198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5263,7 +5260,7 @@
         <v>36045</v>
       </c>
       <c r="E199" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5280,7 +5277,7 @@
         <v>36045</v>
       </c>
       <c r="E200" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5297,7 +5294,7 @@
         <v>36045</v>
       </c>
       <c r="E201" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5314,7 +5311,7 @@
         <v>36045</v>
       </c>
       <c r="E202" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5331,7 +5328,7 @@
         <v>36178</v>
       </c>
       <c r="E203" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5348,7 +5345,7 @@
         <v>31472</v>
       </c>
       <c r="E204" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,7 +5362,7 @@
         <v>32118</v>
       </c>
       <c r="E205" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5382,7 +5379,7 @@
         <v>37012</v>
       </c>
       <c r="E206" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5399,7 +5396,7 @@
         <v>37012</v>
       </c>
       <c r="E207" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5416,7 +5413,7 @@
         <v>35777</v>
       </c>
       <c r="E208" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5433,7 +5430,7 @@
         <v>36069</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5450,7 +5447,7 @@
         <v>36069</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5467,7 +5464,7 @@
         <v>36404</v>
       </c>
       <c r="E211" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5484,7 +5481,7 @@
         <v>36404</v>
       </c>
       <c r="E212" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5535,7 +5532,7 @@
         <v>32174</v>
       </c>
       <c r="E215" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5569,7 +5566,7 @@
         <v>35035</v>
       </c>
       <c r="E217" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5586,7 +5583,7 @@
         <v>35035</v>
       </c>
       <c r="E218" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5603,7 +5600,7 @@
         <v>35462</v>
       </c>
       <c r="E219" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5620,7 +5617,7 @@
         <v>35462</v>
       </c>
       <c r="E220" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5654,7 +5651,7 @@
         <v>37165</v>
       </c>
       <c r="E222" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5671,7 +5668,7 @@
         <v>37165</v>
       </c>
       <c r="E223" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5688,7 +5685,7 @@
         <v>32752</v>
       </c>
       <c r="E224" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5705,7 +5702,7 @@
         <v>32752</v>
       </c>
       <c r="E225" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5722,7 +5719,7 @@
         <v>33899</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5739,7 +5736,7 @@
         <v>31423</v>
       </c>
       <c r="E227" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5756,7 +5753,7 @@
         <v>31423</v>
       </c>
       <c r="E228" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5773,7 +5770,7 @@
         <v>36065</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5790,7 +5787,7 @@
         <v>156</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5841,7 +5838,7 @@
         <v>36065</v>
       </c>
       <c r="E233" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5858,7 +5855,7 @@
         <v>36192</v>
       </c>
       <c r="E234" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5875,7 +5872,7 @@
         <v>36192</v>
       </c>
       <c r="E235" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5892,7 +5889,7 @@
         <v>36443</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,7 +5906,7 @@
         <v>36443</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5926,7 +5923,7 @@
         <v>36443</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5943,7 +5940,7 @@
         <v>36443</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5960,7 +5957,7 @@
         <v>156</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5977,7 +5974,7 @@
         <v>156</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6028,7 +6025,7 @@
         <v>32478</v>
       </c>
       <c r="E244" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6045,7 +6042,7 @@
         <v>31321</v>
       </c>
       <c r="E245" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6062,7 +6059,7 @@
         <v>300</v>
       </c>
       <c r="E246" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6079,7 +6076,7 @@
         <v>300</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6130,7 +6127,7 @@
         <v>298</v>
       </c>
       <c r="E250" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6147,7 +6144,7 @@
         <v>304</v>
       </c>
       <c r="E251" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6164,7 +6161,7 @@
         <v>304</v>
       </c>
       <c r="E252" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6181,7 +6178,7 @@
         <v>306</v>
       </c>
       <c r="E253" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6198,7 +6195,7 @@
         <v>306</v>
       </c>
       <c r="E254" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6215,7 +6212,7 @@
         <v>306</v>
       </c>
       <c r="E255" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6232,7 +6229,7 @@
         <v>306</v>
       </c>
       <c r="E256" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6249,7 +6246,7 @@
         <v>33878</v>
       </c>
       <c r="E257" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6266,7 +6263,7 @@
         <v>34274</v>
       </c>
       <c r="E258" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6283,7 +6280,7 @@
         <v>34759</v>
       </c>
       <c r="E259" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6300,7 +6297,7 @@
         <v>34992</v>
       </c>
       <c r="E260" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6317,7 +6314,7 @@
         <v>34992</v>
       </c>
       <c r="E261" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6334,7 +6331,7 @@
         <v>35342</v>
       </c>
       <c r="E262" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6351,7 +6348,7 @@
         <v>35342</v>
       </c>
       <c r="E263" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6368,7 +6365,7 @@
         <v>35499</v>
       </c>
       <c r="E264" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6385,7 +6382,7 @@
         <v>35499</v>
       </c>
       <c r="E265" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6402,7 +6399,7 @@
         <v>35713</v>
       </c>
       <c r="E266" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6419,7 +6416,7 @@
         <v>35844</v>
       </c>
       <c r="E267" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6436,7 +6433,7 @@
         <v>36089</v>
       </c>
       <c r="E268" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6453,7 +6450,7 @@
         <v>36089</v>
       </c>
       <c r="E269" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6470,7 +6467,7 @@
         <v>36130</v>
       </c>
       <c r="E270" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6487,7 +6484,7 @@
         <v>36130</v>
       </c>
       <c r="E271" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6504,7 +6501,7 @@
         <v>36451</v>
       </c>
       <c r="E272" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6521,7 +6518,7 @@
         <v>36434</v>
       </c>
       <c r="E273" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6555,7 +6552,7 @@
         <v>33420</v>
       </c>
       <c r="E275" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6589,7 +6586,7 @@
         <v>36861</v>
       </c>
       <c r="E277" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6606,7 +6603,7 @@
         <v>36861</v>
       </c>
       <c r="E278" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6623,7 +6620,7 @@
         <v>37135</v>
       </c>
       <c r="E279" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6640,7 +6637,7 @@
         <v>37165</v>
       </c>
       <c r="E280" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6657,7 +6654,7 @@
         <v>37165</v>
       </c>
       <c r="E281" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6674,7 +6671,7 @@
         <v>34045</v>
       </c>
       <c r="E282" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6691,7 +6688,7 @@
         <v>34045</v>
       </c>
       <c r="E283" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6725,7 +6722,7 @@
         <v>33298</v>
       </c>
       <c r="E285" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6776,7 +6773,7 @@
         <v>34243</v>
       </c>
       <c r="E288" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -6810,7 +6807,7 @@
         <v>35823</v>
       </c>
       <c r="E290" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -6827,7 +6824,7 @@
         <v>36066</v>
       </c>
       <c r="E291" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6844,7 +6841,7 @@
         <v>36066</v>
       </c>
       <c r="E292" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -6861,7 +6858,7 @@
         <v>36404</v>
       </c>
       <c r="E293" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -6878,7 +6875,7 @@
         <v>36557</v>
       </c>
       <c r="E294" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -6895,7 +6892,7 @@
         <v>36557</v>
       </c>
       <c r="E295" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -6912,7 +6909,7 @@
         <v>36861</v>
       </c>
       <c r="E296" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -6929,7 +6926,7 @@
         <v>36861</v>
       </c>
       <c r="E297" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6946,7 +6943,7 @@
         <v>37196</v>
       </c>
       <c r="E298" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6963,7 +6960,7 @@
         <v>34243</v>
       </c>
       <c r="E299" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6980,7 +6977,7 @@
         <v>34608</v>
       </c>
       <c r="E300" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -6997,7 +6994,7 @@
         <v>34978</v>
       </c>
       <c r="E301" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7014,7 +7011,7 @@
         <v>35348</v>
       </c>
       <c r="E302" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7031,7 +7028,7 @@
         <v>35690</v>
       </c>
       <c r="E303" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7048,7 +7045,7 @@
         <v>33147</v>
       </c>
       <c r="E304" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7065,7 +7062,7 @@
         <v>33270</v>
       </c>
       <c r="E305" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7082,7 +7079,7 @@
         <v>33543</v>
       </c>
       <c r="E306" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7099,7 +7096,7 @@
         <v>32203</v>
       </c>
       <c r="E307" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7116,7 +7113,7 @@
         <v>32568</v>
       </c>
       <c r="E308" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7133,7 +7130,7 @@
         <v>32786</v>
       </c>
       <c r="E309" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7150,7 +7147,7 @@
         <v>35004</v>
       </c>
       <c r="E310" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7167,7 +7164,7 @@
         <v>35004</v>
       </c>
       <c r="E311" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7184,7 +7181,7 @@
         <v>35612</v>
       </c>
       <c r="E312" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7201,7 +7198,7 @@
         <v>35612</v>
       </c>
       <c r="E313" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7218,7 +7215,7 @@
         <v>35612</v>
       </c>
       <c r="E314" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7235,7 +7232,7 @@
         <v>35612</v>
       </c>
       <c r="E315" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/NewlyCreatedData/Checks/BirthDates.xlsx
+++ b/data/NewlyCreatedData/Checks/BirthDates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\monas\Git\repo\glt\GoldenLionTamarins\data\NewlyCreatedData\Checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A8EE5-1981-457C-9F62-CF380566361D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE97324-1510-4B17-8B6F-2093FEADFC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -38,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="488">
   <si>
-    <t>Tatoo</t>
-  </si>
-  <si>
     <t>E3</t>
   </si>
   <si>
@@ -1500,6 +1486,9 @@
   </si>
   <si>
     <t>Birth_VR</t>
+  </si>
+  <si>
+    <t>Tattoo</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1857,7 @@
   <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,5374 +1871,5374 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
         <v>34029</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1389</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4">
         <v>33635</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
         <v>35009</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="11">
         <v>36800</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="11">
         <v>36831</v>
       </c>
       <c r="E6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D7" s="12">
         <v>36892</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D8" s="12">
         <v>36892</v>
       </c>
       <c r="E8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4">
         <v>35688</v>
       </c>
       <c r="E9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6">
         <v>36062</v>
       </c>
       <c r="E10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="6">
         <v>36062</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
         <v>36418</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
         <v>36418</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5">
         <v>36526</v>
       </c>
       <c r="E14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5">
         <v>36526</v>
       </c>
       <c r="E15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2">
         <v>1985</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="4">
         <v>32325</v>
       </c>
       <c r="E16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2">
         <v>2326</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4">
         <v>33390</v>
       </c>
       <c r="E17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4">
         <v>35324</v>
       </c>
       <c r="E18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4">
         <v>36465</v>
       </c>
       <c r="E19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
         <v>36465</v>
       </c>
       <c r="E20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2">
         <v>2249</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="8">
         <v>32995</v>
       </c>
       <c r="E21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="4">
         <v>33238</v>
       </c>
       <c r="E22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="5">
         <v>35339</v>
       </c>
       <c r="E28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="5">
         <v>35339</v>
       </c>
       <c r="E29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="E31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="E32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4">
         <v>33238</v>
       </c>
       <c r="E33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="5">
         <v>37073</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="4">
         <v>33599</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="4">
         <v>33599</v>
       </c>
       <c r="E37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4">
         <v>34060</v>
       </c>
       <c r="E38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="4">
         <v>34394</v>
       </c>
       <c r="E39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2">
         <v>2061</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4">
         <v>32587</v>
       </c>
       <c r="E40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="2">
         <v>2167</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4">
         <v>32905</v>
       </c>
       <c r="E41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2">
         <v>2168</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4">
         <v>32905</v>
       </c>
       <c r="E42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="4">
         <v>33588</v>
       </c>
       <c r="E43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="4">
         <v>33573</v>
       </c>
       <c r="E44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4">
         <v>34578</v>
       </c>
       <c r="E46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="4">
         <v>33921</v>
       </c>
       <c r="E48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="9">
         <v>34090</v>
       </c>
       <c r="E49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="9">
         <v>34639</v>
       </c>
       <c r="E50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="E51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B52" s="2">
         <v>2047</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4">
         <v>33334</v>
       </c>
       <c r="E53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4">
         <v>33482</v>
       </c>
       <c r="E54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4">
         <v>35400</v>
       </c>
       <c r="E56" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="4">
         <v>35400</v>
       </c>
       <c r="E57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="4">
         <v>35977</v>
       </c>
       <c r="E58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D59" s="4">
         <v>36069</v>
       </c>
       <c r="E59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D60" s="4">
         <v>36069</v>
       </c>
       <c r="E60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D61" s="4">
         <v>36434</v>
       </c>
       <c r="E61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D62" s="4">
         <v>36434</v>
       </c>
       <c r="E62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B63" s="2">
         <v>2414</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="4">
         <v>33756</v>
       </c>
       <c r="E63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B64" s="2">
         <v>1697</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" s="4">
         <v>31625</v>
       </c>
       <c r="E64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="E65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" s="9">
         <v>36708</v>
       </c>
       <c r="E66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4">
         <v>34608</v>
       </c>
       <c r="E67" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4">
         <v>34608</v>
       </c>
       <c r="E68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="4">
         <v>35004</v>
       </c>
       <c r="E69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" s="4">
         <v>35004</v>
       </c>
       <c r="E70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="4">
         <v>35309</v>
       </c>
       <c r="E71" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" s="4">
         <v>35309</v>
       </c>
       <c r="E72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" s="4">
         <v>35674</v>
       </c>
       <c r="E73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="4">
         <v>35674</v>
       </c>
       <c r="E74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D75" s="4">
         <v>36130</v>
       </c>
       <c r="E75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="4">
         <v>36130</v>
       </c>
       <c r="E76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="4">
         <v>36434</v>
       </c>
       <c r="E77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" s="4">
         <v>36434</v>
       </c>
       <c r="E78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="4">
         <v>36800</v>
       </c>
       <c r="E79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="4">
         <v>36800</v>
       </c>
       <c r="E80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D81" s="4">
         <v>37165</v>
       </c>
       <c r="E81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D82" s="4">
         <v>37165</v>
       </c>
       <c r="E82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" s="4">
         <v>33270</v>
       </c>
       <c r="E83" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" s="4">
         <v>33329</v>
       </c>
       <c r="E84" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B85" s="2">
         <v>2423</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="4">
         <v>33329</v>
       </c>
       <c r="E85" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" s="7">
         <v>36272</v>
       </c>
       <c r="E86" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="E87" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="4">
         <v>36800</v>
       </c>
       <c r="E88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" s="4">
         <v>36800</v>
       </c>
       <c r="E89" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D90" s="4">
         <v>37165</v>
       </c>
       <c r="E90" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D91" s="4">
         <v>37165</v>
       </c>
       <c r="E91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2">
         <v>2218</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" s="4">
         <v>32905</v>
       </c>
       <c r="E92" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" s="4">
         <v>32721</v>
       </c>
       <c r="E93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B95" s="2">
         <v>1817</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" s="4">
         <v>36495</v>
       </c>
       <c r="E96" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" s="4">
         <v>36495</v>
       </c>
       <c r="E97" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="4">
         <v>36800</v>
       </c>
       <c r="E98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B99" s="2">
         <v>1840</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="5">
         <v>31822</v>
       </c>
       <c r="E99" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100" s="4">
         <v>33520</v>
       </c>
       <c r="E100" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" s="9">
         <v>34020</v>
       </c>
       <c r="E101" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" s="9">
         <v>34020</v>
       </c>
       <c r="E102" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B103" s="2">
         <v>2035</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" s="4">
         <v>32478</v>
       </c>
       <c r="E103" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" s="4">
         <v>33158</v>
       </c>
       <c r="E104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" s="4">
         <v>33158</v>
       </c>
       <c r="E105" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" s="4">
         <v>33520</v>
       </c>
       <c r="E106" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107" s="4">
         <v>33257</v>
       </c>
       <c r="E107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D108" s="9">
         <v>34608</v>
       </c>
       <c r="E108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E109" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E110" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E111" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E114" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" s="9">
         <v>35977</v>
       </c>
       <c r="E116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D117" s="9">
         <v>35977</v>
       </c>
       <c r="E117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D118" s="9">
         <v>36100</v>
       </c>
       <c r="E118" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D119" s="9">
         <v>36100</v>
       </c>
       <c r="E119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D120" s="9">
         <v>36465</v>
       </c>
       <c r="E120" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D121" s="9">
         <v>36465</v>
       </c>
       <c r="E121" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122" s="9">
         <v>36708</v>
       </c>
       <c r="E122" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C123" s="2" t="s">
+      <c r="E123" t="s">
         <v>353</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E123" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D125" s="9">
         <v>33628</v>
       </c>
       <c r="E125" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126" s="4">
         <v>34001</v>
       </c>
       <c r="E126" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127" s="9">
         <v>34608</v>
       </c>
       <c r="E127" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B128" s="2">
         <v>674</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D128" s="9">
         <v>34608</v>
       </c>
       <c r="E128" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129" s="4">
         <v>34881</v>
       </c>
       <c r="E129" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D130" s="4">
         <v>35977</v>
       </c>
       <c r="E130" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D131" s="4">
         <v>36708</v>
       </c>
       <c r="E131" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D132" s="4">
         <v>36708</v>
       </c>
       <c r="E132" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D133" s="4">
         <v>34881</v>
       </c>
       <c r="E133" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D134" s="4">
         <v>34881</v>
       </c>
       <c r="E134" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D135" s="4">
         <v>34881</v>
       </c>
       <c r="E135" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" s="4">
         <v>35278</v>
       </c>
       <c r="E136" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D137" s="4">
         <v>35643</v>
       </c>
       <c r="E137" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D138" s="4">
         <v>35643</v>
       </c>
       <c r="E138" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139" s="4">
         <v>35643</v>
       </c>
       <c r="E139" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140" s="4">
         <v>35977</v>
       </c>
       <c r="E140" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D141" s="4">
         <v>37073</v>
       </c>
       <c r="E141" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D142" s="4">
         <v>37073</v>
       </c>
       <c r="E142" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D143" s="4">
         <v>37073</v>
       </c>
       <c r="E143" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D144" s="4">
         <v>37073</v>
       </c>
       <c r="E144" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D145" s="4">
         <v>35348</v>
       </c>
       <c r="E145" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D146" s="4">
         <v>35348</v>
       </c>
       <c r="E146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147" s="4">
         <v>35711</v>
       </c>
       <c r="E147" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148" s="4">
         <v>35711</v>
       </c>
       <c r="E148" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" s="4">
         <v>36065</v>
       </c>
       <c r="E149" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D150" s="4">
         <v>36065</v>
       </c>
       <c r="E150" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151" s="4">
         <v>36413</v>
       </c>
       <c r="E151" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D152" s="4">
         <v>36413</v>
       </c>
       <c r="E152" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E153" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E156" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D157" s="5">
         <v>37165</v>
       </c>
       <c r="E157" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D158" s="5">
         <v>37165</v>
       </c>
       <c r="E158" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159" s="9">
         <v>34339</v>
       </c>
       <c r="E159" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D160" s="9">
         <v>34339</v>
       </c>
       <c r="E160" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161" s="4">
         <v>34620</v>
       </c>
       <c r="E161" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162" s="4">
         <v>34973</v>
       </c>
       <c r="E162" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D163" s="4">
         <v>34639</v>
       </c>
       <c r="E163" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D164" s="4">
         <v>36404</v>
       </c>
       <c r="E164" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D165" s="4">
         <v>36557</v>
       </c>
       <c r="E165" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D166" s="4">
         <v>36557</v>
       </c>
       <c r="E166" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D167" s="4">
         <v>36800</v>
       </c>
       <c r="E167" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D168" s="4">
         <v>36800</v>
       </c>
       <c r="E168" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D169" s="4">
         <v>37165</v>
       </c>
       <c r="E169" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D170" s="4">
         <v>37165</v>
       </c>
       <c r="E170" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D171" s="4">
         <v>34639</v>
       </c>
       <c r="E171" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172" s="4">
         <v>34972</v>
       </c>
       <c r="E172" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D173" s="4">
         <v>34972</v>
       </c>
       <c r="E173" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D174" s="9">
         <v>35734</v>
       </c>
       <c r="E174" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D175" s="4">
         <v>35704</v>
       </c>
       <c r="E175" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D176" s="4">
         <v>36039</v>
       </c>
       <c r="E176" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D177" s="4">
         <v>36039</v>
       </c>
       <c r="E177" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D178" s="4">
         <v>36404</v>
       </c>
       <c r="E178" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D179" s="4">
         <v>36465</v>
       </c>
       <c r="E179" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D180" s="4">
         <v>36465</v>
       </c>
       <c r="E180" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181" s="4">
         <v>33909</v>
       </c>
       <c r="E181" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D182" s="4">
         <v>33140</v>
       </c>
       <c r="E182" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2">
         <v>24</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D183" s="4">
         <v>34060</v>
       </c>
       <c r="E183" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D184" s="7">
         <v>36178</v>
       </c>
       <c r="E184" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D185" s="7">
         <v>36178</v>
       </c>
       <c r="E185" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E186" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E187" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188" s="4">
         <v>36465</v>
       </c>
       <c r="E188" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D189" s="4">
         <v>36800</v>
       </c>
       <c r="E189" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D190" s="4">
         <v>36800</v>
       </c>
       <c r="E190" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D191" s="4">
         <v>36923</v>
       </c>
       <c r="E191" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D192" s="5">
         <v>36923</v>
       </c>
       <c r="E192" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" s="2">
         <v>2407</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D193" s="4">
         <v>33695</v>
       </c>
       <c r="E193" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B194" s="2">
         <v>2719</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D194" s="4">
         <v>35217</v>
       </c>
       <c r="E194" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B195" s="2">
         <v>2718</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D195" s="4">
         <v>35217</v>
       </c>
       <c r="E195" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D196" s="4">
         <v>35519</v>
       </c>
       <c r="E196" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D197" s="4">
         <v>35519</v>
       </c>
       <c r="E197" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D198" s="9">
         <v>36045</v>
       </c>
       <c r="E198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199" s="9">
         <v>36045</v>
       </c>
       <c r="E199" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D200" s="9">
         <v>36045</v>
       </c>
       <c r="E200" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D201" s="9">
         <v>36045</v>
       </c>
       <c r="E201" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D202" s="9">
         <v>36045</v>
       </c>
       <c r="E202" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D203" s="7">
         <v>36178</v>
       </c>
       <c r="E203" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B204" s="2">
         <v>1710</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204" s="4">
         <v>31472</v>
       </c>
       <c r="E204" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B205" s="2">
         <v>1901</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D205" s="5">
         <v>32118</v>
       </c>
       <c r="E205" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D206" s="4">
         <v>37012</v>
       </c>
       <c r="E206" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D207" s="4">
         <v>37012</v>
       </c>
       <c r="E207" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" s="10">
         <v>35777</v>
       </c>
       <c r="E208" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D209" s="4">
         <v>36069</v>
       </c>
       <c r="E209" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D210" s="4">
         <v>36069</v>
       </c>
       <c r="E210" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D211" s="4">
         <v>36404</v>
       </c>
       <c r="E211" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D212" s="4">
         <v>36404</v>
       </c>
       <c r="E212" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D213" s="4">
         <v>37073</v>
       </c>
       <c r="E213" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D214" s="4">
         <v>37073</v>
       </c>
       <c r="E214" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B215" s="2">
         <v>1918</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D215" s="4">
         <v>32174</v>
       </c>
       <c r="E215" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E216" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D217" s="4">
         <v>35035</v>
       </c>
       <c r="E217" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D218" s="4">
         <v>35035</v>
       </c>
       <c r="E218" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D219" s="4">
         <v>35462</v>
       </c>
       <c r="E219" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D220" s="4">
         <v>35462</v>
       </c>
       <c r="E220" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D221" s="4">
         <v>36800</v>
       </c>
       <c r="E221" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D222" s="4">
         <v>37165</v>
       </c>
       <c r="E222" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D223" s="4">
         <v>37165</v>
       </c>
       <c r="E223" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D224" s="4">
         <v>32752</v>
       </c>
       <c r="E224" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D225" s="4">
         <v>32752</v>
       </c>
       <c r="E225" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D226" s="10">
         <v>33899</v>
       </c>
       <c r="E226" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D227" s="7">
         <v>31423</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D228" s="7">
         <v>31423</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D229" s="4">
         <v>36065</v>
       </c>
       <c r="E229" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E230" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E231" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E232" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D233" s="4">
         <v>36065</v>
       </c>
       <c r="E233" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D234" s="7">
         <v>36192</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D235" s="4">
         <v>36192</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D236" s="4">
         <v>36443</v>
       </c>
       <c r="E236" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D237" s="4">
         <v>36443</v>
       </c>
       <c r="E237" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D238" s="4">
         <v>36443</v>
       </c>
       <c r="E238" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D239" s="4">
         <v>36443</v>
       </c>
       <c r="E239" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E240" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E241" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B242" s="2">
         <v>1656</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D242" s="4">
         <v>32905</v>
       </c>
       <c r="E242" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B243" s="2">
         <v>40</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E243" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="C244" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" s="4">
         <v>32478</v>
       </c>
       <c r="E244" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B245" s="2">
         <v>2117</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D245" s="4">
         <v>31321</v>
       </c>
       <c r="E245" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="E246" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E247" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D248" s="5">
         <v>35339</v>
       </c>
       <c r="E248" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D249" s="5">
         <v>35339</v>
       </c>
       <c r="E249" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E250" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E251" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E252" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="E253" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E254" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E255" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E256" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D257" s="4">
         <v>33878</v>
       </c>
       <c r="E257" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D258" s="4">
         <v>34274</v>
       </c>
       <c r="E258" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D259" s="4">
         <v>34759</v>
       </c>
       <c r="E259" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D260" s="4">
         <v>34992</v>
       </c>
       <c r="E260" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D261" s="4">
         <v>34992</v>
       </c>
       <c r="E261" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D262" s="4">
         <v>35342</v>
       </c>
       <c r="E262" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D263" s="4">
         <v>35342</v>
       </c>
       <c r="E263" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" s="4">
         <v>35499</v>
       </c>
       <c r="E264" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D265" s="4">
         <v>35499</v>
       </c>
       <c r="E265" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D266" s="4">
         <v>35713</v>
       </c>
       <c r="E266" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D267" s="9">
         <v>35844</v>
       </c>
       <c r="E267" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D268" s="4">
         <v>36089</v>
       </c>
       <c r="E268" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D269" s="4">
         <v>36089</v>
       </c>
       <c r="E269" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D270" s="4">
         <v>36130</v>
       </c>
       <c r="E270" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" s="4">
         <v>36130</v>
       </c>
       <c r="E271" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D272" s="4">
         <v>36451</v>
       </c>
       <c r="E272" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D273" s="4">
         <v>36434</v>
       </c>
       <c r="E273" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D274" s="4">
         <v>36800</v>
       </c>
       <c r="E274" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B275" s="2">
         <v>2342</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D275" s="4">
         <v>33420</v>
       </c>
       <c r="E275" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D276" s="4">
         <v>36800</v>
       </c>
       <c r="E276" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D277" s="4">
         <v>36861</v>
       </c>
       <c r="E277" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D278" s="4">
         <v>36861</v>
       </c>
       <c r="E278" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D279" s="4">
         <v>37135</v>
       </c>
       <c r="E279" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D280" s="4">
         <v>37165</v>
       </c>
       <c r="E280" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D281" s="4">
         <v>37165</v>
       </c>
       <c r="E281" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D282" s="4">
         <v>34045</v>
       </c>
       <c r="E282" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D283" s="4">
         <v>34045</v>
       </c>
       <c r="E283" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B284" s="2">
         <v>573</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E284" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B285" s="2">
         <v>2317</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D285" s="4">
         <v>33298</v>
       </c>
       <c r="E285" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B286" s="2">
         <v>577</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E286" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B287" s="2">
         <v>554</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E287" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D288" s="4">
         <v>34243</v>
       </c>
       <c r="E288" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E289" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" s="9">
         <v>35823</v>
       </c>
       <c r="E290" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D291" s="3">
         <v>36066</v>
       </c>
       <c r="E291" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D292" s="3">
         <v>36066</v>
       </c>
       <c r="E292" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D293" s="4">
         <v>36404</v>
       </c>
       <c r="E293" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D294" s="4">
         <v>36557</v>
       </c>
       <c r="E294" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D295" s="4">
         <v>36557</v>
       </c>
       <c r="E295" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D296" s="4">
         <v>36861</v>
       </c>
       <c r="E296" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D297" s="4">
         <v>36861</v>
       </c>
       <c r="E297" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D298" s="4">
         <v>37196</v>
       </c>
       <c r="E298" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D299" s="4">
         <v>34243</v>
       </c>
       <c r="E299" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D300" s="4">
         <v>34608</v>
       </c>
       <c r="E300" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D301" s="4">
         <v>34978</v>
       </c>
       <c r="E301" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D302" s="4">
         <v>35348</v>
       </c>
       <c r="E302" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D303" s="4">
         <v>35690</v>
       </c>
       <c r="E303" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C304" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D304" s="4">
         <v>33147</v>
       </c>
       <c r="E304" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="C305" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D305" s="4">
         <v>33270</v>
       </c>
       <c r="E305" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C306" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D306" s="4">
         <v>33543</v>
       </c>
       <c r="E306" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B307" s="2">
         <v>1972</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D307" s="4">
         <v>32203</v>
       </c>
       <c r="E307" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C308" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D308" s="4">
         <v>32568</v>
       </c>
       <c r="E308" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="C309" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D309" s="4">
         <v>32786</v>
       </c>
       <c r="E309" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D310" s="4">
         <v>35004</v>
       </c>
       <c r="E310" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D311" s="4">
         <v>35004</v>
       </c>
       <c r="E311" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D312" s="4">
         <v>35612</v>
       </c>
       <c r="E312" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D313" s="4">
         <v>35612</v>
       </c>
       <c r="E313" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D314" s="4">
         <v>35612</v>
       </c>
       <c r="E314" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315" s="4">
         <v>35612</v>
       </c>
       <c r="E315" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D316" s="2">
         <v>31093</v>
       </c>
       <c r="E316" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
